--- a/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
+++ b/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/test/gaitv3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16E8AA-478B-7F43-B08A-214D917B63A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF59841-1DFE-4B48-B814-24F7126FCEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27160" yWindow="580" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L59"/>
+      <selection activeCell="I2" sqref="I2:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6.8329176766351002E-2</v>
+        <v>6.8381966223605678E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -762,27 +762,27 @@
       </c>
       <c r="AD2">
         <f>2*SQRT(2 * M2 * K2 - K2 * K2)</f>
-        <v>0.7252516999288372</v>
+        <v>0.72552185076893461</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>-5.0120444281876231E-2</v>
+        <v>-5.0128604590794379E-2</v>
       </c>
       <c r="AF2">
         <f>AD3+AD2</f>
-        <v>1.4003829555757981</v>
+        <v>1.4009150969470747</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>5.9942815845425379E-2</v>
+        <v>5.9874254567895857E-2</v>
       </c>
       <c r="AH2">
         <f>AF2/P2</f>
-        <v>1.1867652165896594</v>
+        <v>1.1872161838534532</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>0.11709707932214708</v>
+        <v>0.11706002285634187</v>
       </c>
       <c r="AJ2">
         <f>60/N2</f>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>5.8923383271806899E-2</v>
+        <v>5.8970562253222968E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -895,27 +895,27 @@
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD58" si="16">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
-        <v>0.67513125564696097</v>
+        <v>0.67539324617814023</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE57" si="17">AD4-AD3</f>
-        <v>0.11006326012730139</v>
+        <v>0.11000285915869012</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF57" si="18">AD4+AD3</f>
-        <v>1.4603257714212234</v>
+        <v>1.4607893515149706</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG56" si="19">AF4-AF3</f>
-        <v>9.9781189160051964E-2</v>
+        <v>9.9666349533223064E-2</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH57" si="20">AF3/P3</f>
-        <v>1.3038622959118065</v>
+        <v>1.304276206709795</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI56" si="21">AH4-AH3</f>
-        <v>0.16793672350449107</v>
+        <v>0.16785181314699127</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ58" si="22">60/N3</f>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>8.0605070389934197E-2</v>
+        <v>8.0648287235871668E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1028,27 +1028,27 @@
       </c>
       <c r="AD4">
         <f t="shared" si="16"/>
-        <v>0.78519451577426236</v>
+        <v>0.78539610533683035</v>
       </c>
       <c r="AE4">
         <f t="shared" si="17"/>
-        <v>-1.0282070967249313E-2</v>
+        <v>-1.0336509625467061E-2</v>
       </c>
       <c r="AF4">
         <f t="shared" si="18"/>
-        <v>1.5601069605812754</v>
+        <v>1.5604557010481936</v>
       </c>
       <c r="AG4">
         <f t="shared" si="19"/>
-        <v>-1.9463390495386479E-2</v>
+        <v>-1.9445011817954105E-2</v>
       </c>
       <c r="AH4">
         <f t="shared" si="20"/>
-        <v>1.4717990194162975</v>
+        <v>1.4721280198567863</v>
       </c>
       <c r="AI4">
         <f t="shared" si="21"/>
-        <v>-4.527719526269669E-2</v>
+        <v>-4.5266270569527478E-2</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="22"/>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7.8418172445225101E-2</v>
+        <v>7.8449230201349779E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1161,27 +1161,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="16"/>
-        <v>0.77491244480701305</v>
+        <v>0.77505959571136329</v>
       </c>
       <c r="AE5">
         <f t="shared" si="17"/>
-        <v>-9.1813195281371662E-3</v>
+        <v>-9.1085021924869336E-3</v>
       </c>
       <c r="AF5">
         <f t="shared" si="18"/>
-        <v>1.5406435700858889</v>
+        <v>1.5410106892302395</v>
       </c>
       <c r="AG5">
         <f t="shared" si="19"/>
-        <v>-1.9870199933417654E-2</v>
+        <v>-1.9874087696907683E-2</v>
       </c>
       <c r="AH5">
         <f t="shared" si="20"/>
-        <v>1.4265218241536008</v>
+        <v>1.4268617492872588</v>
       </c>
       <c r="AI5">
         <f t="shared" si="21"/>
-        <v>-4.4000578560445369E-2</v>
+        <v>-4.4010293347866325E-2</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="22"/>
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>7.64940695131993E-2</v>
+        <v>7.6539852703515918E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="AD6">
         <f t="shared" si="16"/>
-        <v>0.76573112527887588</v>
+        <v>0.76595109351887636</v>
       </c>
       <c r="AE6">
         <f t="shared" si="17"/>
-        <v>-1.0688880405280488E-2</v>
+        <v>-1.076558550442086E-2</v>
       </c>
       <c r="AF6">
         <f t="shared" si="18"/>
-        <v>1.5207733701524713</v>
+        <v>1.5211366015333319</v>
       </c>
       <c r="AG6">
         <f t="shared" si="19"/>
-        <v>7.3138569858959945E-2</v>
+        <v>7.3073964764444277E-2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="20"/>
-        <v>1.3825212455931555</v>
+        <v>1.3828514559393925</v>
       </c>
       <c r="AI6">
         <f t="shared" si="21"/>
-        <v>6.648960896269096E-2</v>
+        <v>6.6430877058585747E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="22"/>
@@ -1353,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>7.4287879857302605E-2</v>
+        <v>7.4317209725050126E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="AD7">
         <f t="shared" si="16"/>
-        <v>0.75504224487359539</v>
+        <v>0.7551855080144555</v>
       </c>
       <c r="AE7">
         <f t="shared" si="17"/>
-        <v>8.3827450264240433E-2</v>
+        <v>8.3839550268865248E-2</v>
       </c>
       <c r="AF7">
         <f t="shared" si="18"/>
-        <v>1.5939119400114312</v>
+        <v>1.5942105662977761</v>
       </c>
       <c r="AG7">
         <f t="shared" si="19"/>
-        <v>-7.6673501403154987E-3</v>
+        <v>-7.6376658967296507E-3</v>
       </c>
       <c r="AH7">
         <f t="shared" si="20"/>
-        <v>1.4490108545558464</v>
+        <v>1.4492823329979783</v>
       </c>
       <c r="AI7">
         <f t="shared" si="21"/>
-        <v>-8.1558621908332851E-2</v>
+        <v>-8.1547074031558697E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="22"/>
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9.2581783407283499E-2</v>
+        <v>9.2617837145937298E-2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1560,27 +1560,27 @@
       </c>
       <c r="AD8">
         <f t="shared" si="16"/>
-        <v>0.83886969513783582</v>
+        <v>0.83902505828332075</v>
       </c>
       <c r="AE8">
         <f t="shared" si="17"/>
-        <v>-9.1494800404555932E-2</v>
+        <v>-9.1477216165594899E-2</v>
       </c>
       <c r="AF8">
         <f t="shared" si="18"/>
-        <v>1.5862445898711157</v>
+        <v>1.5865729004010465</v>
       </c>
       <c r="AG8">
         <f t="shared" si="19"/>
-        <v>-0.23534338407813804</v>
+        <v>-0.23553180087319436</v>
       </c>
       <c r="AH8">
         <f t="shared" si="20"/>
-        <v>1.3674522326475136</v>
+        <v>1.3677352589664196</v>
       </c>
       <c r="AI8">
         <f t="shared" si="21"/>
-        <v>-0.2226207023144815</v>
+        <v>-0.22278517462078207</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="22"/>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7.2727627521205596E-2</v>
+        <v>7.2762616642070455E-2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1693,27 +1693,27 @@
       </c>
       <c r="AD9">
         <f t="shared" si="16"/>
-        <v>0.74737489473327989</v>
+        <v>0.74754784211772585</v>
       </c>
       <c r="AE9">
         <f t="shared" si="17"/>
-        <v>-0.14384858367358211</v>
+        <v>-0.14405458470759958</v>
       </c>
       <c r="AF9">
         <f t="shared" si="18"/>
-        <v>1.3509012057929777</v>
+        <v>1.3510410995278521</v>
       </c>
       <c r="AG9">
         <f t="shared" si="19"/>
-        <v>-0.15515105571765275</v>
+        <v>-0.15509141590098618</v>
       </c>
       <c r="AH9">
         <f t="shared" si="20"/>
-        <v>1.1448315303330321</v>
+        <v>1.1449500843456375</v>
       </c>
       <c r="AI9">
         <f t="shared" si="21"/>
-        <v>-0.13148394552343468</v>
+        <v>-0.13143340330592057</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="22"/>
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>4.67937879496216E-2</v>
+        <v>4.6788536260682689E-2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1826,27 +1826,27 @@
       </c>
       <c r="AD10">
         <f t="shared" si="16"/>
-        <v>0.60352631105969778</v>
+        <v>0.60349325741012627</v>
       </c>
       <c r="AE10">
         <f t="shared" si="17"/>
-        <v>-1.1302472044070755E-2</v>
+        <v>-1.1036831193386498E-2</v>
       </c>
       <c r="AF10">
         <f t="shared" si="18"/>
-        <v>1.1957501500753249</v>
+        <v>1.1959496836268659</v>
       </c>
       <c r="AG10">
         <f t="shared" si="19"/>
-        <v>2.2919418993691432E-2</v>
+        <v>2.3121699187770517E-2</v>
       </c>
       <c r="AH10">
         <f t="shared" si="20"/>
-        <v>1.0133475848095974</v>
+        <v>1.0135166810397169</v>
       </c>
       <c r="AI10">
         <f t="shared" si="21"/>
-        <v>5.5660809110592568E-2</v>
+        <v>5.5844181078385402E-2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="22"/>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4.5016433227166697E-2</v>
+        <v>4.5052636647043523E-2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1959,27 +1959,27 @@
       </c>
       <c r="AD11">
         <f t="shared" si="16"/>
-        <v>0.59222383901562703</v>
+        <v>0.59245642621673977</v>
       </c>
       <c r="AE11">
         <f t="shared" si="17"/>
-        <v>3.4221891037762298E-2</v>
+        <v>3.4158530381157015E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="18"/>
-        <v>1.2186695690690164</v>
+        <v>1.2190713828146365</v>
       </c>
       <c r="AG11">
         <f t="shared" si="19"/>
-        <v>0.27096754858528094</v>
+        <v>0.27080059178599414</v>
       </c>
       <c r="AH11">
         <f t="shared" si="20"/>
-        <v>1.06900839392019</v>
+        <v>1.0693608621181023</v>
       </c>
       <c r="AI11">
         <f t="shared" si="21"/>
-        <v>0.3102852335374926</v>
+        <v>0.31015022547507409</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="22"/>
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>5.0511847613858199E-2</v>
+        <v>5.0539870783235748E-2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2092,27 +2092,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="16"/>
-        <v>0.62644573005338933</v>
+        <v>0.62661495659789679</v>
       </c>
       <c r="AE12">
         <f t="shared" si="17"/>
-        <v>0.23674565754751864</v>
+        <v>0.23664206140483701</v>
       </c>
       <c r="AF12">
         <f t="shared" si="18"/>
-        <v>1.4896371176542973</v>
+        <v>1.4898719746006306</v>
       </c>
       <c r="AG12">
         <f t="shared" si="19"/>
-        <v>0.15410894740657843</v>
+        <v>0.15409738121496308</v>
       </c>
       <c r="AH12">
         <f t="shared" si="20"/>
-        <v>1.3792936274576826</v>
+        <v>1.3795110875931764</v>
       </c>
       <c r="AI12">
         <f t="shared" si="21"/>
-        <v>0.11502097714311343</v>
+        <v>0.1150065086028178</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="22"/>
@@ -2151,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>9.8325327663169898E-2</v>
+        <v>9.8341098692709947E-2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2225,27 +2225,27 @@
       </c>
       <c r="AD13">
         <f t="shared" si="16"/>
-        <v>0.86319138760090797</v>
+        <v>0.8632570180027338</v>
       </c>
       <c r="AE13">
         <f t="shared" si="17"/>
-        <v>-8.2636710140940206E-2</v>
+        <v>-8.2544680189874042E-2</v>
       </c>
       <c r="AF13">
         <f t="shared" si="18"/>
-        <v>1.6437460650608757</v>
+        <v>1.6439693558155937</v>
       </c>
       <c r="AG13">
         <f t="shared" si="19"/>
-        <v>-4.926473851671509E-2</v>
+        <v>-4.9291161589749777E-2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="20"/>
-        <v>1.494314604600796</v>
+        <v>1.4945175961959942</v>
       </c>
       <c r="AI13">
         <f t="shared" si="21"/>
-        <v>-1.7943005948795498E-2</v>
+        <v>-1.7963712653546349E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="22"/>
@@ -2284,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>7.9614005956765599E-2</v>
+        <v>7.964756809883794E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2358,27 +2358,27 @@
       </c>
       <c r="AD14">
         <f t="shared" si="16"/>
-        <v>0.78055467745996776</v>
+        <v>0.78071233781285976</v>
       </c>
       <c r="AE14">
         <f t="shared" si="17"/>
-        <v>3.3371971624225005E-2</v>
+        <v>3.3253518600124377E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="18"/>
-        <v>1.5944813265441606</v>
+        <v>1.5946781942258439</v>
       </c>
       <c r="AG14">
         <f t="shared" si="19"/>
-        <v>4.6698618672108339E-2</v>
+        <v>4.6663786486516035E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="20"/>
-        <v>1.4763715986520005</v>
+        <v>1.4765538835424479</v>
       </c>
       <c r="AI14">
         <f t="shared" si="21"/>
-        <v>7.1911368533158715E-2</v>
+        <v>7.1881947318269024E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="22"/>
@@ -2417,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>8.6898041520720906E-2</v>
+        <v>8.6906813577765557E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2491,27 +2491,27 @@
       </c>
       <c r="AD15">
         <f t="shared" si="16"/>
-        <v>0.81392664908419277</v>
+        <v>0.81396585641298413</v>
       </c>
       <c r="AE15">
         <f t="shared" si="17"/>
-        <v>1.3326647047883333E-2</v>
+        <v>1.3410267886391547E-2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="18"/>
-        <v>1.641179945216269</v>
+        <v>1.6413419807123599</v>
       </c>
       <c r="AG15">
         <f t="shared" si="19"/>
-        <v>5.5321373993347134E-2</v>
+        <v>5.5312936384097178E-2</v>
       </c>
       <c r="AH15">
         <f t="shared" si="20"/>
-        <v>1.5482829671851592</v>
+        <v>1.5484358308607169</v>
       </c>
       <c r="AI15">
         <f t="shared" si="21"/>
-        <v>2.2551587638559356E-2</v>
+        <v>2.2540944228595095E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="22"/>
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>8.9908987353071498E-2</v>
+        <v>8.9937012760677587E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2624,27 +2624,27 @@
       </c>
       <c r="AD16">
         <f t="shared" si="16"/>
-        <v>0.8272532961320761</v>
+        <v>0.82737612429937568</v>
       </c>
       <c r="AE16">
         <f t="shared" si="17"/>
-        <v>4.1994726945464023E-2</v>
+        <v>4.1902668497705853E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="18"/>
-        <v>1.6965013192096161</v>
+        <v>1.6966549170964571</v>
       </c>
       <c r="AG16">
         <f t="shared" si="19"/>
-        <v>3.0207309633905943E-2</v>
+        <v>3.0086593398865435E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="20"/>
-        <v>1.5708345548237186</v>
+        <v>1.570976775089312</v>
       </c>
       <c r="AI16">
         <f t="shared" si="21"/>
-        <v>-1.0994376932440542E-3</v>
+        <v>-1.2117655481098666E-3</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="22"/>
@@ -2683,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>9.9786968311330507E-2</v>
+        <v>9.979442612801466E-2</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2757,27 +2757,27 @@
       </c>
       <c r="AD17">
         <f t="shared" si="16"/>
-        <v>0.86924802307754012</v>
+        <v>0.86927879279708153</v>
       </c>
       <c r="AE17">
         <f t="shared" si="17"/>
-        <v>-1.178741731155819E-2</v>
+        <v>-1.1816075098840639E-2</v>
       </c>
       <c r="AF17">
         <f t="shared" si="18"/>
-        <v>1.7267086288435221</v>
+        <v>1.7267415104953225</v>
       </c>
       <c r="AG17">
         <f t="shared" si="19"/>
-        <v>-0.19158495560486943</v>
+        <v>-0.19158563183472799</v>
       </c>
       <c r="AH17">
         <f t="shared" si="20"/>
-        <v>1.5697351171304745</v>
+        <v>1.5697650095412021</v>
       </c>
       <c r="AI17">
         <f t="shared" si="21"/>
-        <v>-0.17416814145897219</v>
+        <v>-0.17416875621338912</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="22"/>
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>9.6953899674995098E-2</v>
+        <v>9.6954403012952245E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2890,27 +2890,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="16"/>
-        <v>0.85746060576598193</v>
+        <v>0.85746271769824089</v>
       </c>
       <c r="AE18">
         <f t="shared" si="17"/>
-        <v>-0.17979753829331124</v>
+        <v>-0.17976955673588713</v>
       </c>
       <c r="AF18">
         <f t="shared" si="18"/>
-        <v>1.5351236732386526</v>
+        <v>1.5351558786605946</v>
       </c>
       <c r="AG18">
         <f t="shared" si="19"/>
-        <v>-0.17220114555917365</v>
+        <v>-0.17223446544805698</v>
       </c>
       <c r="AH18">
         <f t="shared" si="20"/>
-        <v>1.3955669756715023</v>
+        <v>1.395596253327813</v>
       </c>
       <c r="AI18">
         <f t="shared" si="21"/>
-        <v>-0.20002089875967854</v>
+        <v>-0.20005115401856943</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="22"/>
@@ -2949,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5.9380175372002797E-2</v>
+        <v>5.9385616494488751E-2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -3023,27 +3023,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="16"/>
-        <v>0.67766306747267069</v>
+        <v>0.67769316096235377</v>
       </c>
       <c r="AE19">
         <f t="shared" si="17"/>
-        <v>7.5963927341377024E-3</v>
+        <v>7.5350912878299203E-3</v>
       </c>
       <c r="AF19">
         <f t="shared" si="18"/>
-        <v>1.362922527679479</v>
+        <v>1.3629214132125376</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="19"/>
-        <v>-0.67766306747267058</v>
+        <v>-0.67769316096235388</v>
       </c>
       <c r="AH19">
         <f t="shared" si="20"/>
-        <v>1.1955460769118238</v>
+        <v>1.1955450993092436</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="21"/>
-        <v>-1.033928279693237</v>
+        <v>-1.0339346624577852</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="22"/>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0762341475468197E-2</v>
+        <v>6.0756627459190707E-2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="16"/>
-        <v>0.68525946020680839</v>
+        <v>0.68522825225018369</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" si="17"/>
-        <v>-0.68525946020680839</v>
+        <v>-0.68522825225018369</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" si="18"/>
-        <v>0.68525946020680839</v>
+        <v>0.68522825225018369</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" si="19"/>
-        <v>3.2501418564542361E-2</v>
+        <v>3.2492246791766322E-2</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="20"/>
-        <v>0.16161779721858688</v>
+        <v>0.1616104368514584</v>
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="21"/>
-        <v>7.6654289067316916E-3</v>
+        <v>7.6632657527750947E-3</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="22"/>
@@ -3290,23 +3290,23 @@
       </c>
       <c r="AE21" s="3">
         <f t="shared" si="17"/>
-        <v>0.71776087877135075</v>
+        <v>0.71772049904195001</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" si="18"/>
-        <v>0.71776087877135075</v>
+        <v>0.71772049904195001</v>
       </c>
       <c r="AG21" s="3">
         <f t="shared" si="19"/>
-        <v>0.77692341113847063</v>
+        <v>0.77681353532267516</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="20"/>
-        <v>0.16928322612531857</v>
+        <v>0.16927370260423349</v>
       </c>
       <c r="AI21" s="3">
         <f t="shared" si="21"/>
-        <v>1.1418433439710161</v>
+        <v>1.1417210643822799</v>
       </c>
       <c r="AJ21" s="3">
         <f t="shared" si="22"/>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>6.6874427341375095E-2</v>
+        <v>6.6866632490396538E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3419,27 +3419,27 @@
       </c>
       <c r="AD22">
         <f t="shared" si="16"/>
-        <v>0.71776087877135075</v>
+        <v>0.71772049904195001</v>
       </c>
       <c r="AE22">
         <f t="shared" si="17"/>
-        <v>5.916253236711988E-2</v>
+        <v>5.9093036280725042E-2</v>
       </c>
       <c r="AF22">
         <f t="shared" si="18"/>
-        <v>1.4946842899098214</v>
+        <v>1.4945340343646252</v>
       </c>
       <c r="AG22">
         <f t="shared" si="19"/>
-        <v>0.15311850783495617</v>
+        <v>0.15304805703996482</v>
       </c>
       <c r="AH22">
         <f t="shared" si="20"/>
-        <v>1.3111265700963346</v>
+        <v>1.3109947669865134</v>
       </c>
       <c r="AI22">
         <f t="shared" si="21"/>
-        <v>0.2434043711723235</v>
+        <v>0.24332796075366581</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="22"/>
@@ -3478,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>7.8843209765062705E-2</v>
+        <v>7.8819952900635634E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3552,27 +3552,27 @@
       </c>
       <c r="AD23">
         <f t="shared" si="16"/>
-        <v>0.77692341113847063</v>
+        <v>0.77681353532267505</v>
       </c>
       <c r="AE23">
         <f t="shared" si="17"/>
-        <v>9.3955975467836295E-2</v>
+        <v>9.3955020759239893E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="18"/>
-        <v>1.6478027977447776</v>
+        <v>1.64758209140459</v>
       </c>
       <c r="AG23">
         <f t="shared" si="19"/>
-        <v>0.11649210286071265</v>
+        <v>0.11645716881282731</v>
       </c>
       <c r="AH23">
         <f t="shared" si="20"/>
-        <v>1.5545309412686581</v>
+        <v>1.5543227277401792</v>
       </c>
       <c r="AI23">
         <f t="shared" si="21"/>
-        <v>0.10989821024595514</v>
+        <v>0.10986525359700683</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="22"/>
@@ -3611,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>0.100182820128929</v>
+        <v>0.1001558979637555</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3685,27 +3685,27 @@
       </c>
       <c r="AD24">
         <f t="shared" si="16"/>
-        <v>0.87087938660630693</v>
+        <v>0.87076855608191495</v>
       </c>
       <c r="AE24">
         <f t="shared" si="17"/>
-        <v>2.2536127392876359E-2</v>
+        <v>2.2502148053587301E-2</v>
       </c>
       <c r="AF24">
         <f t="shared" si="18"/>
-        <v>1.7642949006054902</v>
+        <v>1.7640392602174173</v>
       </c>
       <c r="AG24">
         <f t="shared" si="19"/>
-        <v>1.1936453923037327E-2</v>
+        <v>1.1979681246616414E-2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="20"/>
-        <v>1.6644291515146132</v>
+        <v>1.664187981337186</v>
       </c>
       <c r="AI24">
         <f t="shared" si="21"/>
-        <v>1.1260805587771205E-2</v>
+        <v>1.130158608171361E-2</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="22"/>
@@ -3744,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0.105745667592419</v>
+        <v>0.1057093565758558</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3818,27 +3818,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="16"/>
-        <v>0.89341551399918329</v>
+        <v>0.89327070413550225</v>
       </c>
       <c r="AE25">
         <f t="shared" si="17"/>
-        <v>-1.0599673469839033E-2</v>
+        <v>-1.0522466806970776E-2</v>
       </c>
       <c r="AF25">
         <f t="shared" si="18"/>
-        <v>1.7762313545285275</v>
+        <v>1.7760189414640337</v>
       </c>
       <c r="AG25">
         <f t="shared" si="19"/>
-        <v>3.0546926304189093E-3</v>
+        <v>3.2737346973983339E-3</v>
       </c>
       <c r="AH25">
         <f t="shared" si="20"/>
-        <v>1.6756899571023844</v>
+        <v>1.6754895674188997</v>
       </c>
       <c r="AI25">
         <f t="shared" si="21"/>
-        <v>2.8817855003950843E-3</v>
+        <v>3.0884289598096526E-3</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="22"/>
@@ -3877,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.103107210413284</v>
+        <v>0.1030905086290963</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3951,27 +3951,27 @@
       </c>
       <c r="AD26">
         <f t="shared" si="16"/>
-        <v>0.88281584052934425</v>
+        <v>0.88274823732853147</v>
       </c>
       <c r="AE26">
         <f t="shared" si="17"/>
-        <v>1.3654366100257942E-2</v>
+        <v>1.3796201504369221E-2</v>
       </c>
       <c r="AF26">
         <f t="shared" si="18"/>
-        <v>1.7792860471589464</v>
+        <v>1.7792926761614321</v>
       </c>
       <c r="AG26">
         <f t="shared" si="19"/>
-        <v>-0.11170854165424693</v>
+        <v>-0.11164478248716625</v>
       </c>
       <c r="AH26">
         <f t="shared" si="20"/>
-        <v>1.6785717426027795</v>
+        <v>1.6785779963787093</v>
       </c>
       <c r="AI26">
         <f t="shared" si="21"/>
-        <v>-0.18966325554501218</v>
+        <v>-0.18960666274097204</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="22"/>
@@ -4010,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>0.106513348703123</v>
+        <v>0.1065320450204706</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4084,27 +4084,27 @@
       </c>
       <c r="AD27">
         <f t="shared" si="16"/>
-        <v>0.8964702066296022</v>
+        <v>0.89654443883290069</v>
       </c>
       <c r="AE27">
         <f t="shared" si="17"/>
-        <v>-0.12536290775450498</v>
+        <v>-0.12544098399153569</v>
       </c>
       <c r="AF27">
         <f t="shared" si="18"/>
-        <v>1.6675775055046995</v>
+        <v>1.6676478936742658</v>
       </c>
       <c r="AG27">
         <f t="shared" si="19"/>
-        <v>-0.18874829066212628</v>
+        <v>-0.18919433448145728</v>
       </c>
       <c r="AH27">
         <f t="shared" si="20"/>
-        <v>1.4889084870577673</v>
+        <v>1.4889713336377373</v>
       </c>
       <c r="AI27">
         <f t="shared" si="21"/>
-        <v>-0.23566338973355272</v>
+        <v>-0.23604458855908583</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="22"/>
@@ -4143,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>7.7617466749945296E-2</v>
+        <v>7.7616660206048502E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4217,27 +4217,27 @@
       </c>
       <c r="AD28">
         <f t="shared" si="16"/>
-        <v>0.77110729887509721</v>
+        <v>0.771103454841365</v>
       </c>
       <c r="AE28">
         <f t="shared" si="17"/>
-        <v>-6.3385382907621302E-2</v>
+        <v>-6.375335048992159E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="18"/>
-        <v>1.4788292148425732</v>
+        <v>1.4784535591928085</v>
       </c>
       <c r="AG28">
         <f t="shared" si="19"/>
-        <v>-0.22252740200870447</v>
+        <v>-0.22297964627572187</v>
       </c>
       <c r="AH28">
         <f t="shared" si="20"/>
-        <v>1.2532450973242146</v>
+        <v>1.2529267450786514</v>
       </c>
       <c r="AI28">
         <f t="shared" si="21"/>
-        <v>-0.20632691996265717</v>
+        <v>-0.2066984843144124</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="22"/>
@@ -4276,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>6.4951996934433695E-2</v>
+        <v>6.4881391775504837E-2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -4350,27 +4350,27 @@
       </c>
       <c r="AD29">
         <f t="shared" si="16"/>
-        <v>0.70772191596747591</v>
+        <v>0.70735010435144341</v>
       </c>
       <c r="AE29">
         <f t="shared" si="17"/>
-        <v>-0.15914201910108317</v>
+        <v>-0.15922629578580028</v>
       </c>
       <c r="AF29">
         <f t="shared" si="18"/>
-        <v>1.2563018128338688</v>
+        <v>1.2554739129170867</v>
       </c>
       <c r="AG29">
         <f t="shared" si="19"/>
-        <v>-0.2713719546680613</v>
+        <v>-0.27165053439940978</v>
       </c>
       <c r="AH29">
         <f t="shared" si="20"/>
-        <v>1.0469181773615575</v>
+        <v>1.046228260764239</v>
       </c>
       <c r="AI29">
         <f t="shared" si="21"/>
-        <v>-0.25261990464719664</v>
+        <v>-0.25282231034675762</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="22"/>
@@ -4409,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3.8497090416510699E-2</v>
+        <v>3.843182066371665E-2</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -4483,27 +4483,27 @@
       </c>
       <c r="AD30">
         <f t="shared" si="16"/>
-        <v>0.54857989686639275</v>
+        <v>0.54812380856564313</v>
       </c>
       <c r="AE30">
         <f t="shared" si="17"/>
-        <v>-0.11222993556697802</v>
+        <v>-0.11242423861360945</v>
       </c>
       <c r="AF30">
         <f t="shared" si="18"/>
-        <v>0.98492985816580747</v>
+        <v>0.98382337851767687</v>
       </c>
       <c r="AG30">
         <f t="shared" si="19"/>
-        <v>5.0618618160220841E-2</v>
+        <v>5.0826158090549578E-2</v>
       </c>
       <c r="AH30">
         <f t="shared" si="20"/>
-        <v>0.79429827271436082</v>
+        <v>0.79340595041748141</v>
       </c>
       <c r="AI30">
         <f t="shared" si="21"/>
-        <v>6.8658790890662846E-2</v>
+        <v>6.8801996756040706E-2</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="22"/>
@@ -4542,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2.41795322981007E-2</v>
+        <v>2.4106612597872688E-2</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -4616,27 +4616,27 @@
       </c>
       <c r="AD31">
         <f t="shared" si="16"/>
-        <v>0.43634996129941472</v>
+        <v>0.43569956995203368</v>
       </c>
       <c r="AE31">
         <f t="shared" si="17"/>
-        <v>0.16284855372719897</v>
+        <v>0.16325039670415903</v>
       </c>
       <c r="AF31">
         <f t="shared" si="18"/>
-        <v>1.0355484763260283</v>
+        <v>1.0346495366082264</v>
       </c>
       <c r="AG31">
         <f t="shared" si="19"/>
-        <v>0.34622226374259757</v>
+        <v>0.34674884907009473</v>
       </c>
       <c r="AH31">
         <f t="shared" si="20"/>
-        <v>0.86295706360502367</v>
+        <v>0.86220794717352212</v>
       </c>
       <c r="AI31">
         <f t="shared" si="21"/>
-        <v>0.34912253294640272</v>
+        <v>0.34954502271974219</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="22"/>
@@ -4675,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4.6108863085909203E-2</v>
+        <v>4.6069691969872831E-2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4749,27 +4749,27 @@
       </c>
       <c r="AD32">
         <f t="shared" si="16"/>
-        <v>0.5991985150266137</v>
+        <v>0.59894996665619271</v>
       </c>
       <c r="AE32">
         <f t="shared" si="17"/>
-        <v>0.18337371001539837</v>
+        <v>0.18349845236593587</v>
       </c>
       <c r="AF32">
         <f t="shared" si="18"/>
-        <v>1.3817707400686259</v>
+        <v>1.3813983856783212</v>
       </c>
       <c r="AG32">
         <f t="shared" si="19"/>
-        <v>0.15500357256086716</v>
+        <v>0.15522757108484675</v>
       </c>
       <c r="AH32">
         <f t="shared" si="20"/>
-        <v>1.2120795965514264</v>
+        <v>1.2117529698932643</v>
       </c>
       <c r="AI32">
         <f t="shared" si="21"/>
-        <v>0.13596804610602375</v>
+        <v>0.13616453603933931</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="22"/>
@@ -4808,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="K33">
-        <v>8.0044098535837105E-2</v>
+        <v>8.0017668277894596E-2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4882,27 +4882,27 @@
       </c>
       <c r="AD33">
         <f t="shared" si="16"/>
-        <v>0.78257222504201207</v>
+        <v>0.78244841902212858</v>
       </c>
       <c r="AE33">
         <f t="shared" si="17"/>
-        <v>-2.8370137454531097E-2</v>
+        <v>-2.8270881281089233E-2</v>
       </c>
       <c r="AF33">
         <f t="shared" si="18"/>
-        <v>1.536774312629493</v>
+        <v>1.5366259567631679</v>
       </c>
       <c r="AG33">
         <f t="shared" si="19"/>
-        <v>0.13292595856152523</v>
+        <v>0.13280109770471316</v>
       </c>
       <c r="AH33">
         <f t="shared" si="20"/>
-        <v>1.3480476426574501</v>
+        <v>1.3479175059326036</v>
       </c>
       <c r="AI33">
         <f t="shared" si="21"/>
-        <v>0.16986169478892998</v>
+        <v>0.16974345267456092</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="22"/>
@@ -4941,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>7.4116007528228098E-2</v>
+        <v>7.411098868537104E-2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5015,27 +5015,27 @@
       </c>
       <c r="AD34">
         <f t="shared" si="16"/>
-        <v>0.75420208758748097</v>
+        <v>0.75417753774103935</v>
       </c>
       <c r="AE34">
         <f t="shared" si="17"/>
-        <v>0.16129609601605643</v>
+        <v>0.16107197898580239</v>
       </c>
       <c r="AF34">
         <f t="shared" si="18"/>
-        <v>1.6697002711910183</v>
+        <v>1.6694270544678811</v>
       </c>
       <c r="AG34">
         <f t="shared" si="19"/>
-        <v>5.3778659435211651E-2</v>
+        <v>5.3656857457737406E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" si="20"/>
-        <v>1.5179093374463801</v>
+        <v>1.5176609586071645</v>
       </c>
       <c r="AI34">
         <f t="shared" si="21"/>
-        <v>7.7904487207536288E-2</v>
+        <v>7.7787107990630266E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="22"/>
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>0.11136964517896</v>
+        <v>0.1113053493931733</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5148,27 +5148,27 @@
       </c>
       <c r="AD35">
         <f t="shared" si="16"/>
-        <v>0.91549818360353741</v>
+        <v>0.91524951672684174</v>
       </c>
       <c r="AE35">
         <f t="shared" si="17"/>
-        <v>-0.10751743658084489</v>
+        <v>-0.10741512152806498</v>
       </c>
       <c r="AF35">
         <f t="shared" si="18"/>
-        <v>1.7234789306262299</v>
+        <v>1.7230839119256185</v>
       </c>
       <c r="AG35">
         <f t="shared" si="19"/>
-        <v>-3.1551632099410476E-2</v>
+        <v>-3.1622738442993237E-2</v>
       </c>
       <c r="AH35">
         <f t="shared" si="20"/>
-        <v>1.5958138246539164</v>
+        <v>1.5954480665977948</v>
       </c>
       <c r="AI35">
         <f t="shared" si="21"/>
-        <v>3.4400414496982279E-4</v>
+        <v>2.7002159336109166E-4</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="22"/>
@@ -5207,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>8.5573596062255702E-2</v>
+        <v>8.5541142940654805E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5281,27 +5281,27 @@
       </c>
       <c r="AD36">
         <f t="shared" si="16"/>
-        <v>0.80798074702269251</v>
+        <v>0.80783439519877676</v>
       </c>
       <c r="AE36">
         <f t="shared" si="17"/>
-        <v>7.5965804481434307E-2</v>
+        <v>7.5792383085071746E-2</v>
       </c>
       <c r="AF36">
         <f t="shared" si="18"/>
-        <v>1.6919272985268194</v>
+        <v>1.6914611734826253</v>
       </c>
       <c r="AG36">
         <f t="shared" si="19"/>
-        <v>-7.4705035119257968E-3</v>
+        <v>-7.4869138315440953E-3</v>
       </c>
       <c r="AH36">
         <f t="shared" si="20"/>
-        <v>1.5961578287988862</v>
+        <v>1.5957180881911559</v>
       </c>
       <c r="AI36">
         <f t="shared" si="21"/>
-        <v>-3.647561119250331E-2</v>
+        <v>-3.6482662588303016E-2</v>
       </c>
       <c r="AJ36">
         <f t="shared" si="22"/>
@@ -5340,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="K37">
-        <v>0.10338679543861699</v>
+        <v>0.1033076816056883</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5414,27 +5414,27 @@
       </c>
       <c r="AD37">
         <f t="shared" si="16"/>
-        <v>0.88394655150412682</v>
+        <v>0.8836267782838485</v>
       </c>
       <c r="AE37">
         <f t="shared" si="17"/>
-        <v>-8.3436307993359993E-2</v>
+        <v>-8.3279296916615952E-2</v>
       </c>
       <c r="AF37">
         <f t="shared" si="18"/>
-        <v>1.6844567950148936</v>
+        <v>1.6839742596510812</v>
       </c>
       <c r="AG37">
         <f t="shared" si="19"/>
-        <v>-0.13292943675103142</v>
+        <v>-0.13321648743722925</v>
       </c>
       <c r="AH37">
         <f t="shared" si="20"/>
-        <v>1.5596822176063829</v>
+        <v>1.5592354256028529</v>
       </c>
       <c r="AI37">
         <f t="shared" si="21"/>
-        <v>-0.17438993344222031</v>
+        <v>-0.1746302718404853</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="22"/>
@@ -5473,7 +5473,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>8.3926001735620301E-2</v>
+        <v>8.3890308398161806E-2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5547,27 +5547,27 @@
       </c>
       <c r="AD38">
         <f t="shared" si="16"/>
-        <v>0.80051024351076683</v>
+        <v>0.80034748136723255</v>
       </c>
       <c r="AE38">
         <f t="shared" si="17"/>
-        <v>-4.9493128757671423E-2</v>
+        <v>-4.9937190520613073E-2</v>
       </c>
       <c r="AF38">
         <f t="shared" si="18"/>
-        <v>1.5515273582638622</v>
+        <v>1.5507577722138519</v>
       </c>
       <c r="AG38" s="3">
         <f t="shared" si="19"/>
-        <v>-0.80051024351076683</v>
+        <v>-0.80034748136723244</v>
       </c>
       <c r="AH38">
         <f t="shared" si="20"/>
-        <v>1.3852922841641626</v>
+        <v>1.3846051537623676</v>
       </c>
       <c r="AI38" s="3">
         <f t="shared" si="21"/>
-        <v>-1.1927237932018304</v>
+        <v>-1.1921922586734908</v>
       </c>
       <c r="AJ38">
         <f t="shared" si="22"/>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>7.3466479459661199E-2</v>
+        <v>7.3343090135893643E-2</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -5680,27 +5680,27 @@
       </c>
       <c r="AD39">
         <f t="shared" si="16"/>
-        <v>0.7510171147530954</v>
+        <v>0.75041029084661948</v>
       </c>
       <c r="AE39" s="3">
         <f t="shared" si="17"/>
-        <v>-0.7510171147530954</v>
+        <v>-0.75041029084661948</v>
       </c>
       <c r="AF39" s="3">
         <f t="shared" si="18"/>
-        <v>0.7510171147530954</v>
+        <v>0.75041029084661948</v>
       </c>
       <c r="AG39" s="3">
         <f t="shared" si="19"/>
-        <v>2.3920070969331686E-2</v>
+        <v>2.4159343236821895E-2</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="20"/>
-        <v>0.19256849096233217</v>
+        <v>0.1924128950888768</v>
       </c>
       <c r="AI39" s="3">
         <f t="shared" si="21"/>
-        <v>4.1160739418371617E-3</v>
+        <v>4.1783825972758482E-3</v>
       </c>
       <c r="AJ39">
         <f t="shared" si="22"/>
@@ -5814,23 +5814,23 @@
       </c>
       <c r="AE40" s="3">
         <f t="shared" si="17"/>
-        <v>0.77493718572242709</v>
+        <v>0.77456963408344137</v>
       </c>
       <c r="AF40" s="3">
         <f t="shared" si="18"/>
-        <v>0.77493718572242709</v>
+        <v>0.77456963408344137</v>
       </c>
       <c r="AG40" s="3">
         <f t="shared" si="19"/>
-        <v>0.82936126159039214</v>
+        <v>0.82912373003735507</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="20"/>
-        <v>0.19668456490416933</v>
+        <v>0.19659127768615264</v>
       </c>
       <c r="AI40" s="3">
         <f t="shared" si="21"/>
-        <v>1.2105947748439179</v>
+        <v>1.2101572873320898</v>
       </c>
       <c r="AJ40" s="3">
         <f t="shared" si="22"/>
@@ -5869,7 +5869,7 @@
         <v>3</v>
       </c>
       <c r="K41">
-        <v>7.8423393791458795E-2</v>
+        <v>7.8345845557594079E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5943,27 +5943,27 @@
       </c>
       <c r="AD41">
         <f t="shared" si="16"/>
-        <v>0.77493718572242709</v>
+        <v>0.77456963408344137</v>
       </c>
       <c r="AE41">
         <f t="shared" si="17"/>
-        <v>5.4424075867964938E-2</v>
+        <v>5.4554095953913806E-2</v>
       </c>
       <c r="AF41">
         <f t="shared" si="18"/>
-        <v>1.6042984473128192</v>
+        <v>1.6036933641207964</v>
       </c>
       <c r="AG41">
         <f t="shared" si="19"/>
-        <v>5.6258991917735868E-2</v>
+        <v>5.6629417009236516E-2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="20"/>
-        <v>1.4072793397480872</v>
+        <v>1.4067485650182425</v>
       </c>
       <c r="AI41">
         <f t="shared" si="21"/>
-        <v>0.13027384472464898</v>
+        <v>0.13058734343549161</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="22"/>
@@ -6002,7 +6002,7 @@
         <v>3</v>
       </c>
       <c r="K42">
-        <v>9.0390654328942194E-2</v>
+        <v>9.0336304627408812E-2</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="16"/>
-        <v>0.82936126159039203</v>
+        <v>0.82912373003735518</v>
       </c>
       <c r="AE42">
         <f t="shared" si="17"/>
-        <v>1.8349160497710404E-3</v>
+        <v>2.0753210553225987E-3</v>
       </c>
       <c r="AF42">
         <f t="shared" si="18"/>
-        <v>1.6605574392305551</v>
+        <v>1.660322781130033</v>
       </c>
       <c r="AG42">
         <f t="shared" si="19"/>
-        <v>3.4495310566805104E-2</v>
+        <v>3.4233594158421976E-2</v>
       </c>
       <c r="AH42">
         <f t="shared" si="20"/>
-        <v>1.5375531844727361</v>
+        <v>1.5373359084537341</v>
       </c>
       <c r="AI42">
         <f t="shared" si="21"/>
-        <v>6.1553183260622424E-2</v>
+        <v>6.1302181441034609E-2</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="22"/>
@@ -6135,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>9.0811137121764501E-2</v>
+        <v>9.0811796473884057E-2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6209,27 +6209,27 @@
       </c>
       <c r="AD43">
         <f t="shared" si="16"/>
-        <v>0.83119617764016307</v>
+        <v>0.83119905109267778</v>
       </c>
       <c r="AE43">
         <f t="shared" si="17"/>
-        <v>3.2660394517034175E-2</v>
+        <v>3.2158273103099266E-2</v>
       </c>
       <c r="AF43">
         <f t="shared" si="18"/>
-        <v>1.6950527497973602</v>
+        <v>1.6945563752884549</v>
       </c>
       <c r="AG43">
         <f t="shared" si="19"/>
-        <v>5.4199176619706968E-2</v>
+        <v>5.3969508967778745E-2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="20"/>
-        <v>1.5991063677333586</v>
+        <v>1.5986380898947687</v>
       </c>
       <c r="AI43">
         <f t="shared" si="21"/>
-        <v>8.2866638436898343E-2</v>
+        <v>8.2636798813148227E-2</v>
       </c>
       <c r="AJ43">
         <f t="shared" si="22"/>
@@ -6268,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>9.8485240301060498E-2</v>
+        <v>9.836520519003443E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6342,27 +6342,27 @@
       </c>
       <c r="AD44">
         <f t="shared" si="16"/>
-        <v>0.86385657215719724</v>
+        <v>0.86335732419577704</v>
       </c>
       <c r="AE44">
         <f t="shared" si="17"/>
-        <v>2.1538782102672682E-2</v>
+        <v>2.181123586467959E-2</v>
       </c>
       <c r="AF44">
         <f t="shared" si="18"/>
-        <v>1.7492519264170672</v>
+        <v>1.7485258842562337</v>
       </c>
       <c r="AG44">
         <f t="shared" si="19"/>
-        <v>-4.6800105656147117E-2</v>
+        <v>-4.6767040093106615E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="20"/>
-        <v>1.6819730061702569</v>
+        <v>1.681274888707917</v>
       </c>
       <c r="AI44">
         <f t="shared" si="21"/>
-        <v>-7.5886382810898434E-2</v>
+        <v>-7.584201685591041E-2</v>
       </c>
       <c r="AJ44">
         <f t="shared" si="22"/>
@@ -6401,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>0.10374568467756801</v>
+        <v>0.10368945616727231</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6475,27 +6475,27 @@
       </c>
       <c r="AD45">
         <f t="shared" si="16"/>
-        <v>0.88539535425986993</v>
+        <v>0.88516856006045663</v>
       </c>
       <c r="AE45">
         <f t="shared" si="17"/>
-        <v>-6.8338887758819689E-2</v>
+        <v>-6.8578275957786206E-2</v>
       </c>
       <c r="AF45">
         <f t="shared" si="18"/>
-        <v>1.7024518207609201</v>
+        <v>1.7017588441631271</v>
       </c>
       <c r="AG45">
         <f t="shared" si="19"/>
-        <v>-3.5566700189449074E-2</v>
+        <v>-3.5662386356869247E-2</v>
       </c>
       <c r="AH45">
         <f t="shared" si="20"/>
-        <v>1.6060866233593585</v>
+        <v>1.6054328718520066</v>
       </c>
       <c r="AI45">
         <f t="shared" si="21"/>
-        <v>-9.0736513748930436E-2</v>
+        <v>-9.0799728391772305E-2</v>
       </c>
       <c r="AJ45">
         <f t="shared" si="22"/>
@@ -6534,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>8.7599888513868795E-2</v>
+        <v>8.7495144155737281E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6608,27 +6608,27 @@
       </c>
       <c r="AD46">
         <f t="shared" si="16"/>
-        <v>0.81705646650105024</v>
+        <v>0.81659028410267043</v>
       </c>
       <c r="AE46">
         <f t="shared" si="17"/>
-        <v>3.2772187569370503E-2</v>
+        <v>3.2915889600916848E-2</v>
       </c>
       <c r="AF46">
         <f t="shared" si="18"/>
-        <v>1.666885120571471</v>
+        <v>1.6660964578062578</v>
       </c>
       <c r="AG46">
         <f t="shared" si="19"/>
-        <v>2.461313939108245E-2</v>
+        <v>2.4465854231842554E-2</v>
       </c>
       <c r="AH46">
         <f t="shared" si="20"/>
-        <v>1.515350109610428</v>
+        <v>1.5146331434602343</v>
       </c>
       <c r="AI46">
         <f t="shared" si="21"/>
-        <v>-5.7161954470295706E-2</v>
+        <v>-5.7251839979113095E-2</v>
       </c>
       <c r="AJ46">
         <f t="shared" si="22"/>
@@ -6667,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>9.5144889234899097E-2</v>
+        <v>9.5068887028816357E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6741,27 +6741,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="16"/>
-        <v>0.84982865407042074</v>
+        <v>0.84950617370358728</v>
       </c>
       <c r="AE47">
         <f t="shared" si="17"/>
-        <v>-8.159048178287942E-3</v>
+        <v>-8.4500353690741825E-3</v>
       </c>
       <c r="AF47">
         <f t="shared" si="18"/>
-        <v>1.6914982599625534</v>
+        <v>1.6905623120381004</v>
       </c>
       <c r="AG47">
         <f t="shared" si="19"/>
-        <v>-0.12995206552258565</v>
+        <v>-0.1292750290147151</v>
       </c>
       <c r="AH47">
         <f t="shared" si="20"/>
-        <v>1.4581881551401323</v>
+        <v>1.4573813034811212</v>
       </c>
       <c r="AI47">
         <f t="shared" si="21"/>
-        <v>-0.13484392256388844</v>
+        <v>-0.13425648735960816</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="22"/>
@@ -6800,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>9.3232779254392203E-2</v>
+        <v>9.3089918664438318E-2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6874,27 +6874,27 @@
       </c>
       <c r="AD48">
         <f t="shared" si="16"/>
-        <v>0.8416696058921328</v>
+        <v>0.84105613833451309</v>
       </c>
       <c r="AE48">
         <f t="shared" si="17"/>
-        <v>-0.12179301734429782</v>
+        <v>-0.12082499364564092</v>
       </c>
       <c r="AF48">
         <f t="shared" si="18"/>
-        <v>1.5615461944399678</v>
+        <v>1.5612872830233853</v>
       </c>
       <c r="AG48">
         <f t="shared" si="19"/>
-        <v>-0.27433509453744742</v>
+        <v>-0.27524046050689366</v>
       </c>
       <c r="AH48">
         <f t="shared" si="20"/>
-        <v>1.3233442325762439</v>
+        <v>1.323124816121513</v>
       </c>
       <c r="AI48">
         <f t="shared" si="21"/>
-        <v>-0.33318184803584361</v>
+        <v>-0.3338580295703657</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="22"/>
@@ -6933,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>6.72835464188664E-2</v>
+        <v>6.7352243124693179E-2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7007,27 +7007,27 @@
       </c>
       <c r="AD49">
         <f t="shared" si="16"/>
-        <v>0.71987658854783498</v>
+        <v>0.72023114468887217</v>
       </c>
       <c r="AE49">
         <f t="shared" si="17"/>
-        <v>-0.15254207719314961</v>
+        <v>-0.15441546686125285</v>
       </c>
       <c r="AF49">
         <f t="shared" si="18"/>
-        <v>1.2872110999025204</v>
+        <v>1.2860468225164916</v>
       </c>
       <c r="AG49">
         <f t="shared" si="19"/>
-        <v>-0.15861062531136905</v>
+        <v>-0.1598622449892888</v>
       </c>
       <c r="AH49">
         <f t="shared" si="20"/>
-        <v>0.99016238454040029</v>
+        <v>0.9892667865511473</v>
       </c>
       <c r="AI49">
         <f t="shared" si="21"/>
-        <v>-9.4447722166470682E-2</v>
+        <v>-9.5469502799399031E-2</v>
       </c>
       <c r="AJ49">
         <f t="shared" si="22"/>
@@ -7066,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>4.1232031495776603E-2</v>
+        <v>4.100682717473958E-2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7140,27 +7140,27 @@
       </c>
       <c r="AD50">
         <f t="shared" si="16"/>
-        <v>0.56733451135468538</v>
+        <v>0.56581567782761932</v>
       </c>
       <c r="AE50">
         <f t="shared" si="17"/>
-        <v>-6.0685481182194412E-3</v>
+        <v>-5.4467781280358452E-3</v>
       </c>
       <c r="AF50">
         <f t="shared" si="18"/>
-        <v>1.1286004745911513</v>
+        <v>1.1261845775272028</v>
       </c>
       <c r="AG50">
         <f t="shared" si="19"/>
-        <v>0.21933906438319628</v>
+        <v>0.22063390235025637</v>
       </c>
       <c r="AH50">
         <f t="shared" si="20"/>
-        <v>0.8957146623739296</v>
+        <v>0.89379728375174827</v>
       </c>
       <c r="AI50">
         <f t="shared" si="21"/>
-        <v>0.28668844198953325</v>
+        <v>0.28762243543900556</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="22"/>
@@ -7199,7 +7199,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>4.0336147724399897E-2</v>
+        <v>4.020460466368616E-2</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -7273,27 +7273,27 @@
       </c>
       <c r="AD51">
         <f t="shared" si="16"/>
-        <v>0.56126596323646594</v>
+        <v>0.56036889969958348</v>
       </c>
       <c r="AE51">
         <f t="shared" si="17"/>
-        <v>0.22540761250141572</v>
+        <v>0.22608068047829222</v>
       </c>
       <c r="AF51">
         <f t="shared" si="18"/>
-        <v>1.3479395389743476</v>
+        <v>1.3468184798774592</v>
       </c>
       <c r="AG51">
         <f t="shared" si="19"/>
-        <v>0.19826799580300625</v>
+        <v>0.1986213284534204</v>
       </c>
       <c r="AH51">
         <f t="shared" si="20"/>
-        <v>1.1824031043634629</v>
+        <v>1.1814197191907538</v>
       </c>
       <c r="AI51">
         <f t="shared" si="21"/>
-        <v>0.12794226409192189</v>
+        <v>0.12827503363202553</v>
       </c>
       <c r="AJ51">
         <f t="shared" si="22"/>
@@ -7332,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <v>8.0922457233961506E-2</v>
+        <v>8.087434527507055E-2</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -7406,27 +7406,27 @@
       </c>
       <c r="AD52">
         <f t="shared" si="16"/>
-        <v>0.78667357573788166</v>
+        <v>0.7864495801778757</v>
       </c>
       <c r="AE52">
         <f t="shared" si="17"/>
-        <v>-2.7139616698409363E-2</v>
+        <v>-2.7459352024871819E-2</v>
       </c>
       <c r="AF52">
         <f t="shared" si="18"/>
-        <v>1.5462075347773538</v>
+        <v>1.5454398083308796</v>
       </c>
       <c r="AG52">
         <f t="shared" si="19"/>
-        <v>3.2007666209973751E-2</v>
+        <v>3.161226231198766E-2</v>
       </c>
       <c r="AH52">
         <f t="shared" si="20"/>
-        <v>1.3103453684553847</v>
+        <v>1.3096947528227794</v>
       </c>
       <c r="AI52">
         <f t="shared" si="21"/>
-        <v>9.8775346711871936E-2</v>
+        <v>9.8387453108351952E-2</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="22"/>
@@ -7465,7 +7465,7 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>7.5210550827650699E-2</v>
+        <v>7.5098519271751749E-2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7539,27 +7539,27 @@
       </c>
       <c r="AD53">
         <f t="shared" si="16"/>
-        <v>0.7595339590394723</v>
+        <v>0.75899022815300388</v>
       </c>
       <c r="AE53">
         <f t="shared" si="17"/>
-        <v>5.9147282908383003E-2</v>
+        <v>5.907161433685959E-2</v>
       </c>
       <c r="AF53">
         <f t="shared" si="18"/>
-        <v>1.5782152009873276</v>
+        <v>1.5770520706428672</v>
       </c>
       <c r="AG53">
         <f t="shared" si="19"/>
-        <v>0.13175642429780798</v>
+        <v>0.13185367471163367</v>
       </c>
       <c r="AH53">
         <f t="shared" si="20"/>
-        <v>1.4091207151672567</v>
+        <v>1.4080822059311313</v>
       </c>
       <c r="AI53">
         <f t="shared" si="21"/>
-        <v>0.14539894418286647</v>
+        <v>0.14546847166386945</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="22"/>
@@ -7598,7 +7598,7 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.7965513633107797E-2</v>
+        <v>8.7826026420785894E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7672,27 +7672,27 @@
       </c>
       <c r="AD54">
         <f t="shared" si="16"/>
-        <v>0.8186812419478553</v>
+        <v>0.81806184248986347</v>
       </c>
       <c r="AE54">
         <f t="shared" si="17"/>
-        <v>7.260914138942498E-2</v>
+        <v>7.2782060374773971E-2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="18"/>
-        <v>1.7099716252851356</v>
+        <v>1.7089057453545009</v>
       </c>
       <c r="AG54">
         <f t="shared" si="19"/>
-        <v>-4.864662387696006E-2</v>
+        <v>-4.8805927708657659E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="20"/>
-        <v>1.5545196593501232</v>
+        <v>1.5535506775950008</v>
       </c>
       <c r="AI54">
         <f t="shared" si="21"/>
-        <v>-1.625576915736815E-2</v>
+        <v>-1.6421216811812744E-2</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="22"/>
@@ -7731,7 +7731,7 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.105213530655553</v>
+        <v>0.1051019324702734</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -7805,27 +7805,27 @@
       </c>
       <c r="AD55">
         <f t="shared" si="16"/>
-        <v>0.89129038333728028</v>
+        <v>0.89084390286463744</v>
       </c>
       <c r="AE55">
         <f t="shared" si="17"/>
-        <v>-0.12125576526638504</v>
+        <v>-0.12158798808343174</v>
       </c>
       <c r="AF55">
         <f t="shared" si="18"/>
-        <v>1.6613250014081755</v>
+        <v>1.6600998176458432</v>
       </c>
       <c r="AG55">
         <f t="shared" si="19"/>
-        <v>-4.3330004095870844E-2</v>
+        <v>-4.3527831777778747E-2</v>
       </c>
       <c r="AH55">
         <f t="shared" si="20"/>
-        <v>1.538263890192755</v>
+        <v>1.537129460783188</v>
       </c>
       <c r="AI55">
         <f t="shared" si="21"/>
-        <v>-4.0120374162843309E-2</v>
+        <v>-4.0303547942387663E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="22"/>
@@ -7864,7 +7864,7 @@
         <v>3</v>
       </c>
       <c r="K56">
-        <v>7.7392583412352098E-2</v>
+        <v>7.7229561836580501E-2</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -7938,27 +7938,27 @@
       </c>
       <c r="AD56">
         <f t="shared" si="16"/>
-        <v>0.77003461807089524</v>
+        <v>0.7692559147812057</v>
       </c>
       <c r="AE56">
         <f t="shared" si="17"/>
-        <v>7.7925761170514307E-2</v>
+        <v>7.8060156305653217E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="18"/>
-        <v>1.6179949973123047</v>
+        <v>1.6165719858680645</v>
       </c>
       <c r="AG56">
         <f t="shared" si="19"/>
-        <v>-5.193496424607158E-2</v>
+        <v>-5.1986474845699071E-2</v>
       </c>
       <c r="AH56">
         <f t="shared" si="20"/>
-        <v>1.4981435160299117</v>
+        <v>1.4968259128408004</v>
       </c>
       <c r="AI56">
         <f t="shared" si="21"/>
-        <v>-9.9875629363632257E-2</v>
+        <v>-9.9874563713688413E-2</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="22"/>
@@ -7997,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <v>9.4705063333950401E-2</v>
+        <v>9.4553655593436314E-2</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8065,20 +8065,20 @@
       </c>
       <c r="AD57">
         <f t="shared" si="16"/>
-        <v>0.84796037924140955</v>
+        <v>0.84731607108685891</v>
       </c>
       <c r="AE57">
         <f t="shared" si="17"/>
-        <v>-0.12986072541658611</v>
+        <v>-0.1300466311513524</v>
       </c>
       <c r="AF57">
         <f t="shared" si="18"/>
-        <v>1.5660600330662331</v>
+        <v>1.5645855110223654</v>
       </c>
       <c r="AG57" s="3"/>
       <c r="AH57">
         <f t="shared" si="20"/>
-        <v>1.3982678866662794</v>
+        <v>1.3969513491271119</v>
       </c>
       <c r="AI57" s="3"/>
       <c r="AJ57">
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>6.6939843890999703E-2</v>
+        <v>6.6779594870222739E-2</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8166,7 +8166,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58">
         <f t="shared" si="16"/>
-        <v>0.71809965382482344</v>
+        <v>0.71726943993550651</v>
       </c>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>

--- a/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
+++ b/tests/gait/data/manual_gait_turn_results_vcwt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF59841-1DFE-4B48-B814-24F7126FCEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58CCF6-FF3D-944D-BE36-210A2AD0E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I57"/>
+      <selection activeCell="K2" sqref="K2:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,16 +679,18 @@
         <v>245</v>
       </c>
       <c r="H2">
-        <v>237</v>
+        <f>E3</f>
+        <v>238</v>
       </c>
       <c r="I2">
+        <f>E4</f>
         <v>266</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6.8381966223605678E-2</v>
+        <v>6.9653348626577224E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -698,11 +700,11 @@
       </c>
       <c r="N2">
         <f>(H2-E2)/50</f>
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="O2">
         <f>N3-N2</f>
-        <v>-2.0000000000000018E-2</v>
+        <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P2">
         <f>(I2-E2)/50</f>
@@ -710,7 +712,7 @@
       </c>
       <c r="Q2">
         <f>P3-P2</f>
-        <v>-5.9999999999999831E-2</v>
+        <v>-7.9999999999999849E-2</v>
       </c>
       <c r="R2">
         <f>(G2-E2)/50</f>
@@ -718,7 +720,7 @@
       </c>
       <c r="S2">
         <f>R3-R2</f>
-        <v>-4.0000000000000036E-2</v>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="T2">
         <f>(I2-G2)/50</f>
@@ -734,59 +736,59 @@
       </c>
       <c r="W2">
         <f>V3-V2</f>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="X2">
         <f>(G2-H2)/50</f>
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y2">
         <f>X3-X2</f>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f>V2+X2</f>
-        <v>0.32</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AA2">
         <f>Z3-Z2</f>
-        <v>-1.9999999999999962E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB2">
         <f>(H2-F2)/50</f>
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="AC2">
         <f>AB3-AB2</f>
-        <v>-2.0000000000000018E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AD2">
         <f>2*SQRT(2 * M2 * K2 - K2 * K2)</f>
-        <v>0.72552185076893461</v>
+        <v>0.73199345398206284</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>-5.0128604590794379E-2</v>
+        <v>8.8260287833861417E-2</v>
       </c>
       <c r="AF2">
         <f>AD3+AD2</f>
-        <v>1.4009150969470747</v>
+        <v>1.5522471957979871</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>5.9874254567895857E-2</v>
+        <v>5.5055958699856911E-2</v>
       </c>
       <c r="AH2">
         <f>AF2/P2</f>
-        <v>1.1872161838534532</v>
+        <v>1.3154637252525314</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>0.11706002285634187</v>
+        <v>0.14572096065459927</v>
       </c>
       <c r="AJ2">
         <f>60/N2</f>
-        <v>100</v>
+        <v>96.774193548387103</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
@@ -803,7 +805,7 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F3">
         <v>245</v>
@@ -812,16 +814,18 @@
         <v>273</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H58" si="0">E4</f>
         <v>266</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I57" si="1">E5</f>
         <v>293</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3">
-        <v>5.8970562253222968E-2</v>
+        <v>8.8320207383049534E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -830,96 +834,96 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N58" si="0">(H3-E3)/50</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" ref="N3:N58" si="2">(H3-E3)/50</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O57" si="1">N4-N3</f>
-        <v>-3.9999999999999925E-2</v>
+        <f t="shared" ref="O3:O57" si="3">N4-N3</f>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P57" si="2">(I3-E3)/50</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" ref="P3:P57" si="4">(I3-E3)/50</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q56" si="3">P4-P3</f>
-        <v>-6.0000000000000053E-2</v>
+        <f t="shared" ref="Q3:Q56" si="5">P4-P3</f>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R59" si="4">(G3-E3)/50</f>
-        <v>0.72</v>
+        <f t="shared" ref="R3:R59" si="6">(G3-E3)/50</f>
+        <v>0.7</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S58" si="5">R4-R3</f>
-        <v>-3.9999999999999925E-2</v>
+        <f t="shared" ref="S3:S58" si="7">R4-R3</f>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T57" si="6">(I3-G3)/50</f>
+        <f t="shared" ref="T3:T57" si="8">(I3-G3)/50</f>
         <v>0.4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U56" si="7">T4-T3</f>
+        <f t="shared" ref="U3:U56" si="9">T4-T3</f>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V59" si="8">(F3-E3)/50</f>
-        <v>0.16</v>
+        <f t="shared" ref="V3:V59" si="10">(F3-E3)/50</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W58" si="9">V4-V3</f>
-        <v>-1.999999999999999E-2</v>
+        <f t="shared" ref="W3:W58" si="11">V4-V3</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X58" si="10">(G3-H3)/50</f>
+        <f t="shared" ref="X3:X58" si="12">(G3-H3)/50</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y57" si="11">X4-X3</f>
+        <f t="shared" ref="Y3:Y57" si="13">X4-X3</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z58" si="12">V3+X3</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" ref="Z3:Z58" si="14">V3+X3</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA57" si="13">Z4-Z3</f>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" ref="AA3:AA57" si="15">Z4-Z3</f>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB58" si="14">(H3-F3)/50</f>
+        <f t="shared" ref="AB3:AB58" si="16">(H3-F3)/50</f>
         <v>0.42</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC57" si="15">AB4-AB3</f>
+        <f t="shared" ref="AC3:AC57" si="17">AB4-AB3</f>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD58" si="16">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
-        <v>0.67539324617814023</v>
+        <f t="shared" ref="AD3:AD58" si="18">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
+        <v>0.82025374181592425</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE57" si="17">AD4-AD3</f>
-        <v>0.11000285915869012</v>
+        <f t="shared" ref="AE3:AE57" si="19">AD4-AD3</f>
+        <v>-3.3204329134004507E-2</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF57" si="18">AD4+AD3</f>
-        <v>1.4607893515149706</v>
+        <f t="shared" ref="AF3:AF57" si="20">AD4+AD3</f>
+        <v>1.607303154497844</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG56" si="19">AF4-AF3</f>
-        <v>9.9666349533223064E-2</v>
+        <f t="shared" ref="AG3:AG56" si="21">AF4-AF3</f>
+        <v>-4.5932723484455318E-2</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH57" si="20">AF3/P3</f>
-        <v>1.304276206709795</v>
+        <f t="shared" ref="AH3:AH57" si="22">AF3/P3</f>
+        <v>1.4611846859071307</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI56" si="21">AH4-AH3</f>
-        <v>0.16785181314699127</v>
+        <f t="shared" ref="AI3:AI56" si="23">AH4-AH3</f>
+        <v>1.1806286747009453E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ58" si="22">60/N3</f>
-        <v>103.44827586206897</v>
+        <f t="shared" ref="AJ3:AJ58" si="24">60/N3</f>
+        <v>107.14285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -945,16 +949,18 @@
         <v>300</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
       <c r="I4">
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>8.0648287235871668E-2</v>
+        <v>8.1003219636828036E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -963,95 +969,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="16"/>
-        <v>0.78539610533683035</v>
+        <f t="shared" si="18"/>
+        <v>0.78704941268191975</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="17"/>
-        <v>-1.0336509625467061E-2</v>
+        <f t="shared" si="19"/>
+        <v>-1.27283943504507E-2</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="18"/>
-        <v>1.5604557010481936</v>
+        <f t="shared" si="20"/>
+        <v>1.5613704310133887</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="19"/>
-        <v>-1.9445011817954105E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.4707576228891304E-2</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="20"/>
-        <v>1.4721280198567863</v>
+        <f t="shared" si="22"/>
+        <v>1.4729909726541401</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="21"/>
-        <v>-4.5266270569527478E-2</v>
+        <f t="shared" si="23"/>
+        <v>-5.0154996001827934E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -1078,16 +1084,18 @@
         <v>327</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
       <c r="I5">
+        <f t="shared" si="1"/>
         <v>347</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7.8449230201349779E-2</v>
+        <v>7.8293415695906685E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1096,95 +1104,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="16"/>
-        <v>0.77505959571136329</v>
+        <f t="shared" si="18"/>
+        <v>0.77432101833146905</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="17"/>
-        <v>-9.1085021924869336E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.1979181878440714E-2</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="18"/>
-        <v>1.5410106892302395</v>
+        <f t="shared" si="20"/>
+        <v>1.5366628547844974</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="19"/>
-        <v>-1.9874087696907683E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.9381265275117743E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="20"/>
-        <v>1.4268617492872588</v>
+        <f t="shared" si="22"/>
+        <v>1.4228359766523122</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="21"/>
-        <v>-4.4010293347866325E-2</v>
+        <f t="shared" si="23"/>
+        <v>-4.3489077098330942E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -1211,16 +1219,18 @@
         <v>354</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
       <c r="I6">
+        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>7.6539852703515918E-2</v>
+        <v>7.5790587111800145E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1229,95 +1239,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="16"/>
-        <v>0.76595109351887636</v>
+        <f t="shared" si="18"/>
+        <v>0.76234183645302833</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="17"/>
-        <v>-1.076558550442086E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.4020833966770283E-3</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="18"/>
-        <v>1.5211366015333319</v>
+        <f t="shared" si="20"/>
+        <v>1.5172815895093796</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="19"/>
-        <v>7.3073964764444277E-2</v>
+        <f t="shared" si="21"/>
+        <v>7.6334717650299089E-2</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="20"/>
-        <v>1.3828514559393925</v>
+        <f t="shared" si="22"/>
+        <v>1.3793468995539813</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="21"/>
-        <v>6.6430877058585747E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.9395197863908464E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -1344,16 +1354,18 @@
         <v>381</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>374</v>
       </c>
       <c r="I7">
+        <f t="shared" si="1"/>
         <v>402</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>7.4317209725050126E-2</v>
+        <v>7.4266900976977301E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1362,95 +1374,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="16"/>
-        <v>0.7551855080144555</v>
+        <f t="shared" si="18"/>
+        <v>0.7549397530563513</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="17"/>
-        <v>8.3839550268865248E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3736801046976117E-2</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="18"/>
-        <v>1.5942105662977761</v>
+        <f t="shared" si="20"/>
+        <v>1.5936163071596787</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="19"/>
-        <v>-7.6376658967296507E-3</v>
+        <f t="shared" si="21"/>
+        <v>-8.0752010363893678E-3</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="20"/>
-        <v>1.4492823329979783</v>
+        <f t="shared" si="22"/>
+        <v>1.4487420974178897</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="21"/>
-        <v>-8.1547074031558697E-2</v>
+        <f t="shared" si="23"/>
+        <v>-8.1896316277122905E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -1477,16 +1489,18 @@
         <v>410</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="I8">
+        <f t="shared" si="1"/>
         <v>432</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9.2617837145937298E-2</v>
+        <v>9.2536974204972727E-2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1495,95 +1509,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="16"/>
-        <v>0.83902505828332075</v>
+        <f t="shared" si="18"/>
+        <v>0.83867655410332742</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="17"/>
-        <v>-9.1477216165594899E-2</v>
+        <f t="shared" si="19"/>
+        <v>-9.1812002083365596E-2</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="18"/>
-        <v>1.5865729004010465</v>
+        <f t="shared" si="20"/>
+        <v>1.5855411061232894</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="19"/>
-        <v>-0.23553180087319436</v>
+        <f t="shared" si="21"/>
+        <v>-0.23594967822825086</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="20"/>
-        <v>1.3677352589664196</v>
+        <f t="shared" si="22"/>
+        <v>1.3668457811407668</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="21"/>
-        <v>-0.22278517462078207</v>
+        <f t="shared" si="23"/>
+        <v>-0.22312423207717491</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -1610,16 +1624,18 @@
         <v>440</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
         <v>432</v>
       </c>
       <c r="I9">
+        <f t="shared" si="1"/>
         <v>461</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7.2762616642070455E-2</v>
+        <v>7.2624434597880552E-2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1628,95 +1644,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V9">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="16"/>
-        <v>0.74754784211772585</v>
+        <f t="shared" si="18"/>
+        <v>0.74686455201996182</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="17"/>
-        <v>-0.14405458470759958</v>
+        <f t="shared" si="19"/>
+        <v>-0.14413767614488515</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="18"/>
-        <v>1.3510410995278521</v>
+        <f t="shared" si="20"/>
+        <v>1.3495914278950385</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="19"/>
-        <v>-0.15509141590098618</v>
+        <f t="shared" si="21"/>
+        <v>-0.15181674864938333</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="20"/>
-        <v>1.1449500843456375</v>
+        <f t="shared" si="22"/>
+        <v>1.1437215490635919</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="21"/>
-        <v>-0.13143340330592057</v>
+        <f t="shared" si="23"/>
+        <v>-0.128658261567274</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -1743,16 +1759,18 @@
         <v>469</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
         <v>461</v>
       </c>
       <c r="I10">
+        <f t="shared" si="1"/>
         <v>491</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>4.6788536260682689E-2</v>
+        <v>4.6666859441839063E-2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1761,95 +1779,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="16"/>
-        <v>0.60349325741012627</v>
+        <f t="shared" si="18"/>
+        <v>0.60272687587507667</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="17"/>
-        <v>-1.1036831193386498E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.6790725044980634E-3</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="18"/>
-        <v>1.1959496836268659</v>
+        <f t="shared" si="20"/>
+        <v>1.1977746792456552</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="19"/>
-        <v>2.3121699187770517E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.5703001830190253E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="20"/>
-        <v>1.0135166810397169</v>
+        <f t="shared" si="22"/>
+        <v>1.0150632874963179</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="21"/>
-        <v>5.5844181078385402E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.8162748535125486E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -1876,16 +1894,18 @@
         <v>498</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
         <v>491</v>
       </c>
       <c r="I11">
+        <f t="shared" si="1"/>
         <v>518</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4.5052636647043523E-2</v>
+        <v>4.5457053275033597E-2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1894,95 +1914,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="16"/>
-        <v>0.59245642621673977</v>
+        <f t="shared" si="18"/>
+        <v>0.59504780337057861</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="17"/>
-        <v>3.4158530381157015E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.3382074334688205E-2</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="18"/>
-        <v>1.2190713828146365</v>
+        <f t="shared" si="20"/>
+        <v>1.2234776810758454</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="19"/>
-        <v>0.27080059178599414</v>
+        <f t="shared" si="21"/>
+        <v>0.26845459322243315</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="20"/>
-        <v>1.0693608621181023</v>
+        <f t="shared" si="22"/>
+        <v>1.0732260360314434</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="21"/>
-        <v>0.31015022547507409</v>
+        <f t="shared" si="23"/>
+        <v>0.30819273646696255</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -2009,16 +2029,18 @@
         <v>525</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="I12">
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>5.0539870783235748E-2</v>
+        <v>5.084094198096973E-2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2027,95 +2049,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="16"/>
-        <v>0.62661495659789679</v>
+        <f t="shared" si="18"/>
+        <v>0.62842987770526682</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="17"/>
-        <v>0.23664206140483701</v>
+        <f t="shared" si="19"/>
+        <v>0.23507251888774483</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="18"/>
-        <v>1.4898719746006306</v>
+        <f t="shared" si="20"/>
+        <v>1.4919322742982786</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="19"/>
-        <v>0.15409738121496308</v>
+        <f t="shared" si="21"/>
+        <v>0.15577450460095377</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="20"/>
-        <v>1.3795110875931764</v>
+        <f t="shared" si="22"/>
+        <v>1.3814187724984059</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="21"/>
-        <v>0.1150065086028178</v>
+        <f t="shared" si="23"/>
+        <v>0.11649648104635069</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2142,16 +2164,18 @@
         <v>553</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
         <v>545</v>
       </c>
       <c r="I13">
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>9.8341098692709947E-2</v>
+        <v>9.8400076408950182E-2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2160,95 +2184,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="16"/>
-        <v>0.8632570180027338</v>
+        <f t="shared" si="18"/>
+        <v>0.86350239659301165</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="17"/>
-        <v>-8.2544680189874042E-2</v>
+        <f t="shared" si="19"/>
+        <v>-7.9298014286790952E-2</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="18"/>
-        <v>1.6439693558155937</v>
+        <f t="shared" si="20"/>
+        <v>1.6477067788992323</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="19"/>
-        <v>-4.9291161589749777E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.5883123984138185E-2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="20"/>
-        <v>1.4945175961959942</v>
+        <f t="shared" si="22"/>
+        <v>1.4979152535447566</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="21"/>
-        <v>-1.7963712653546349E-2</v>
+        <f t="shared" si="23"/>
+        <v>-1.4745202697447279E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2275,16 +2299,18 @@
         <v>580</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
         <v>573</v>
       </c>
       <c r="I14">
+        <f t="shared" si="1"/>
         <v>599</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>7.964756809883794E-2</v>
+        <v>8.0392995827581165E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2293,95 +2319,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="13"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
-      </c>
-      <c r="AC14">
         <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="17"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="AD14">
-        <f t="shared" si="16"/>
-        <v>0.78071233781285976</v>
+        <f t="shared" si="18"/>
+        <v>0.78420438230622069</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="17"/>
-        <v>3.3253518600124377E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.3414890302652878E-2</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="18"/>
-        <v>1.5946781942258439</v>
+        <f t="shared" si="20"/>
+        <v>1.6018236549150942</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="19"/>
-        <v>4.6663786486516035E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.6983250150105071E-2</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="20"/>
-        <v>1.4765538835424479</v>
+        <f t="shared" si="22"/>
+        <v>1.4831700508473094</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="21"/>
-        <v>7.1881947318269024E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.2308161478350286E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -2408,16 +2434,18 @@
         <v>606</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
         <v>599</v>
       </c>
       <c r="I15">
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15">
-        <v>8.6906813577765557E-2</v>
+        <v>8.7726438557479469E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2426,95 +2454,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1.06</v>
-      </c>
-      <c r="Q15">
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R15">
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.66</v>
-      </c>
-      <c r="S15">
+        <v>1.06</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.66</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="16"/>
-        <v>0.81396585641298413</v>
+        <f t="shared" si="18"/>
+        <v>0.81761927260887357</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="17"/>
-        <v>1.3410267886391547E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.3568359847452194E-2</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="18"/>
-        <v>1.6413419807123599</v>
+        <f t="shared" si="20"/>
+        <v>1.6488069050651992</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="19"/>
-        <v>5.5312936384097178E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.2486881795763551E-2</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="20"/>
-        <v>1.5484358308607169</v>
+        <f t="shared" si="22"/>
+        <v>1.5554782123256596</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="21"/>
-        <v>2.2540944228595095E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.9793812545602085E-2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -2541,16 +2569,18 @@
         <v>633</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
         <v>626</v>
       </c>
       <c r="I16">
+        <f t="shared" si="1"/>
         <v>653</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16">
-        <v>8.9937012760677587E-2</v>
+        <v>9.0809176331323488E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2559,95 +2589,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="16"/>
-        <v>0.82737612429937568</v>
+        <f t="shared" si="18"/>
+        <v>0.83118763245632576</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="17"/>
-        <v>4.1902668497705853E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.8918521948311358E-2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="18"/>
-        <v>1.6966549170964571</v>
+        <f t="shared" si="20"/>
+        <v>1.7012937868609628</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="19"/>
-        <v>3.0086593398865435E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.0756471875794E-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="20"/>
-        <v>1.570976775089312</v>
+        <f t="shared" si="22"/>
+        <v>1.5752720248712617</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="21"/>
-        <v>-1.2117655481098666E-3</v>
+        <f t="shared" si="23"/>
+        <v>-6.8088056511927952E-4</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2674,16 +2704,18 @@
         <v>660</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
         <v>653</v>
       </c>
       <c r="I17">
+        <f t="shared" si="1"/>
         <v>681</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>9.979442612801466E-2</v>
+        <v>9.9995080325418206E-2</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2692,95 +2724,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V17">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="16"/>
-        <v>0.86927879279708153</v>
+        <f t="shared" si="18"/>
+        <v>0.87010615440463712</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="17"/>
-        <v>-1.1816075098840639E-2</v>
+        <f t="shared" si="19"/>
+        <v>-8.1620500725174683E-3</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="18"/>
-        <v>1.7267415104953225</v>
+        <f t="shared" si="20"/>
+        <v>1.7320502587367568</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="19"/>
-        <v>-0.19158563183472799</v>
+        <f t="shared" si="21"/>
+        <v>-0.19229235916807963</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="20"/>
-        <v>1.5697650095412021</v>
+        <f t="shared" si="22"/>
+        <v>1.5745911443061424</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="21"/>
-        <v>-0.17416875621338912</v>
+        <f t="shared" si="23"/>
+        <v>-0.17481123560734524</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -2807,16 +2839,18 @@
         <v>688</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="I18">
+        <f t="shared" si="1"/>
         <v>708</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18">
-        <v>9.6954403012952245E-2</v>
+        <v>9.8025885139283994E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2825,95 +2859,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9999999999999813E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V18">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X18">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y18">
-        <f t="shared" si="11"/>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA18">
         <f t="shared" si="13"/>
         <v>3.999999999999998E-2</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="15"/>
+        <v>3.999999999999998E-2</v>
+      </c>
       <c r="AB18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="16"/>
-        <v>0.85746271769824089</v>
+        <f t="shared" si="18"/>
+        <v>0.86194410433211965</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="17"/>
-        <v>-0.17976955673588713</v>
+        <f t="shared" si="19"/>
+        <v>-0.18413030909556216</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="18"/>
-        <v>1.5351558786605946</v>
+        <f t="shared" si="20"/>
+        <v>1.5397578995686771</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="19"/>
-        <v>-0.17223446544805698</v>
+        <f t="shared" si="21"/>
+        <v>-0.17855053611044269</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="20"/>
-        <v>1.395596253327813</v>
+        <f t="shared" si="22"/>
+        <v>1.3997799086987972</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="21"/>
-        <v>-0.20005115401856943</v>
+        <f t="shared" si="23"/>
+        <v>-0.205738361805609</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -2940,16 +2974,18 @@
         <v>717</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
         <v>708</v>
       </c>
       <c r="I19">
+        <f t="shared" si="1"/>
         <v>738</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5.9385616494488751E-2</v>
+        <v>5.9407430794270633E-2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2958,95 +2994,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1000000000000005</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.04</v>
       </c>
       <c r="V19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="X19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="16"/>
-        <v>0.67769316096235377</v>
+        <f t="shared" si="18"/>
+        <v>0.67781379523655749</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="17"/>
-        <v>7.5350912878299203E-3</v>
+        <f t="shared" si="19"/>
+        <v>5.5797729851195799E-3</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="18"/>
-        <v>1.3629214132125376</v>
+        <f t="shared" si="20"/>
+        <v>1.3612073634582345</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="19"/>
-        <v>-0.67769316096235388</v>
+        <f t="shared" si="21"/>
+        <v>-0.67781379523655738</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="20"/>
-        <v>1.1955450993092436</v>
+        <f t="shared" si="22"/>
+        <v>1.1940415468931882</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="21"/>
-        <v>-1.0339346624577852</v>
+        <f t="shared" si="23"/>
+        <v>-1.0328638185390191</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3073,16 +3109,18 @@
         <v>747</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0756627459190707E-2</v>
+        <v>6.0421224744753629E-2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3091,95 +3129,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.04</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.24</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.78</v>
       </c>
       <c r="S20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.46</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="V20">
-        <f t="shared" si="8"/>
-        <v>0.18</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X20">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="12"/>
+        <v>0.18</v>
+      </c>
       <c r="Y20" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.94</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.36</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.9399999999999995</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.04</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="16"/>
-        <v>0.68522825225018369</v>
+        <f t="shared" si="18"/>
+        <v>0.68339356822167707</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.68522825225018369</v>
+        <f t="shared" si="19"/>
+        <v>-0.68339356822167707</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="18"/>
-        <v>0.68522825225018369</v>
+        <f t="shared" si="20"/>
+        <v>0.68339356822167707</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="19"/>
-        <v>3.2492246791766322E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.3631391801753341E-2</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="20"/>
-        <v>0.1616104368514584</v>
+        <f t="shared" si="22"/>
+        <v>0.1611777283541691</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="21"/>
-        <v>7.6632657527750947E-3</v>
+        <f t="shared" si="23"/>
+        <v>7.9319320287154216E-3</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -3206,9 +3244,11 @@
         <v>782</v>
       </c>
       <c r="H21" s="3">
+        <f t="shared" si="0"/>
         <v>920</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
       <c r="J21">
@@ -3221,95 +3261,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.64</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.04</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.24</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.1000000000000005</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.36</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.96</v>
       </c>
       <c r="V21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.76</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.9</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2.5799999999999996</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.88</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.46</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.02</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="17"/>
-        <v>0.71772049904195001</v>
+        <f t="shared" si="19"/>
+        <v>0.71702496002343041</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="18"/>
-        <v>0.71772049904195001</v>
+        <f t="shared" si="20"/>
+        <v>0.71702496002343041</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="19"/>
-        <v>0.77681353532267516</v>
+        <f t="shared" si="21"/>
+        <v>0.77948620559941584</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="20"/>
-        <v>0.16927370260423349</v>
+        <f t="shared" si="22"/>
+        <v>0.16910966038288452</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="21"/>
-        <v>1.1417210643822799</v>
+        <f t="shared" si="23"/>
+        <v>1.143619432268735</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16.483516483516482</v>
       </c>
     </row>
@@ -3336,16 +3376,18 @@
         <v>957</v>
       </c>
       <c r="H22" s="3">
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="I22">
+        <f t="shared" si="1"/>
         <v>977</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22">
-        <v>6.6866632490396538E-2</v>
+        <v>6.6732445615181477E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3354,95 +3396,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.9999999999999849E-2</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="16"/>
-        <v>0.71772049904195001</v>
+        <f t="shared" si="18"/>
+        <v>0.71702496002343041</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="17"/>
-        <v>5.9093036280725042E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.2461245575985425E-2</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="18"/>
-        <v>1.4945340343646252</v>
+        <f t="shared" si="20"/>
+        <v>1.4965111656228463</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="19"/>
-        <v>0.15304805703996482</v>
+        <f t="shared" si="21"/>
+        <v>0.15198382484252093</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="20"/>
-        <v>1.3109947669865134</v>
+        <f t="shared" si="22"/>
+        <v>1.3127290926516195</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="21"/>
-        <v>0.24332796075366581</v>
+        <f t="shared" si="23"/>
+        <v>0.24245486061759469</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -3469,16 +3511,18 @@
         <v>984</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
         <v>977</v>
       </c>
       <c r="I23">
+        <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="J23">
         <v>3</v>
       </c>
       <c r="K23">
-        <v>7.8819952900635634E-2</v>
+        <v>7.9386764642921673E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3487,95 +3531,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V23">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="16"/>
-        <v>0.77681353532267505</v>
+        <f t="shared" si="18"/>
+        <v>0.77948620559941584</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="17"/>
-        <v>9.3955020759239893E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.9522579266535507E-2</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="18"/>
-        <v>1.64758209140459</v>
+        <f t="shared" si="20"/>
+        <v>1.6484949904653672</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="19"/>
-        <v>0.11645716881282731</v>
+        <f t="shared" si="21"/>
+        <v>0.11240375154511661</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="20"/>
-        <v>1.5543227277401792</v>
+        <f t="shared" si="22"/>
+        <v>1.5551839532692142</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="21"/>
-        <v>0.10986525359700683</v>
+        <f t="shared" si="23"/>
+        <v>0.10604127504256278</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3602,16 +3646,18 @@
         <v>1010</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="I24">
+        <f t="shared" si="1"/>
         <v>1030</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>0.1001558979637555</v>
+        <v>9.9728994024870538E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3620,95 +3666,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V24">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="16"/>
-        <v>0.87076855608191495</v>
+        <f t="shared" si="18"/>
+        <v>0.86900878486595134</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="17"/>
-        <v>2.2502148053587301E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.2881172278580997E-2</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="18"/>
-        <v>1.7640392602174173</v>
+        <f t="shared" si="20"/>
+        <v>1.7608987420104838</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="19"/>
-        <v>1.1979681246616414E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.6088335268603871E-2</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="20"/>
-        <v>1.664187981337186</v>
+        <f t="shared" si="22"/>
+        <v>1.661225228311777</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="21"/>
-        <v>1.130158608171361E-2</v>
+        <f t="shared" si="23"/>
+        <v>1.5177674781701844E-2</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -3735,16 +3781,18 @@
         <v>1037</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="I25">
+        <f t="shared" si="1"/>
         <v>1056</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0.1057093565758558</v>
+        <v>0.10536350462723409</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3753,95 +3801,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="16"/>
-        <v>0.89327070413550225</v>
+        <f t="shared" si="18"/>
+        <v>0.89188995714453234</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="17"/>
-        <v>-1.0522466806970776E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.7928370099771263E-3</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="18"/>
-        <v>1.7760189414640337</v>
+        <f t="shared" si="20"/>
+        <v>1.7769870772790877</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="19"/>
-        <v>3.2737346973983339E-3</v>
+        <f t="shared" si="21"/>
+        <v>8.4295312454942817E-3</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="20"/>
-        <v>1.6754895674188997</v>
+        <f t="shared" si="22"/>
+        <v>1.6764029030934788</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
-        <v>3.0884289598096526E-3</v>
+        <f t="shared" si="23"/>
+        <v>7.9523879674474607E-3</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -3868,16 +3916,18 @@
         <v>1064</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
         <v>1056</v>
       </c>
       <c r="I26">
+        <f t="shared" si="1"/>
         <v>1083</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.1030905086290963</v>
+        <v>0.1036717479644888</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3886,95 +3936,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="16"/>
-        <v>0.88274823732853147</v>
+        <f t="shared" si="18"/>
+        <v>0.88509712013455522</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="17"/>
-        <v>1.3796201504369221E-2</v>
+        <f t="shared" si="19"/>
+        <v>1.522236825547163E-2</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="18"/>
-        <v>1.7792926761614321</v>
+        <f t="shared" si="20"/>
+        <v>1.7854166085245819</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="19"/>
-        <v>-0.11164478248716625</v>
+        <f t="shared" si="21"/>
+        <v>-0.11122329007566534</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="20"/>
-        <v>1.6785779963787093</v>
+        <f t="shared" si="22"/>
+        <v>1.6843552910609263</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="21"/>
-        <v>-0.18960666274097204</v>
+        <f t="shared" si="23"/>
+        <v>-0.18953982816010795</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -4001,16 +4051,18 @@
         <v>1091</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
         <v>1083</v>
       </c>
       <c r="I27">
+        <f t="shared" si="1"/>
         <v>1112</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
       <c r="K27">
-        <v>0.1065320450204706</v>
+        <v>0.1074854007800974</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4019,95 +4071,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="16"/>
-        <v>0.89654443883290069</v>
+        <f t="shared" si="18"/>
+        <v>0.90031948839002685</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="17"/>
-        <v>-0.12544098399153569</v>
+        <f t="shared" si="19"/>
+        <v>-0.12644565833113708</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="18"/>
-        <v>1.6676478936742658</v>
+        <f t="shared" si="20"/>
+        <v>1.6741933184489166</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="19"/>
-        <v>-0.18919433448145728</v>
+        <f t="shared" si="21"/>
+        <v>-0.19470225856455947</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="20"/>
-        <v>1.4889713336377373</v>
+        <f t="shared" si="22"/>
+        <v>1.4948154629008183</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="21"/>
-        <v>-0.23604458855908583</v>
+        <f t="shared" si="23"/>
+        <v>-0.24100947994797317</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -4134,16 +4186,18 @@
         <v>1120</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
         <v>1112</v>
       </c>
       <c r="I28">
+        <f t="shared" si="1"/>
         <v>1142</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>7.7616660206048502E-2</v>
+        <v>7.8199159340672258E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4152,95 +4206,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>1.18</v>
-      </c>
-      <c r="Q28">
         <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R28">
+      <c r="P28">
         <f t="shared" si="4"/>
-        <v>0.74</v>
-      </c>
-      <c r="S28">
+        <v>1.18</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="T28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="16"/>
-        <v>0.771103454841365</v>
+        <f t="shared" si="18"/>
+        <v>0.77387383005888977</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="17"/>
-        <v>-6.375335048992159E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.8256600233422393E-2</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="18"/>
-        <v>1.4784535591928085</v>
+        <f t="shared" si="20"/>
+        <v>1.4794910598843571</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="19"/>
-        <v>-0.22297964627572187</v>
+        <f t="shared" si="21"/>
+        <v>-0.22441320180989077</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="20"/>
-        <v>1.2529267450786514</v>
+        <f t="shared" si="22"/>
+        <v>1.2538059829528452</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="21"/>
-        <v>-0.2066984843144124</v>
+        <f t="shared" si="23"/>
+        <v>-0.20790776789078991</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -4267,16 +4321,18 @@
         <v>1150</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
         <v>1142</v>
       </c>
       <c r="I29">
+        <f t="shared" si="1"/>
         <v>1172</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>6.4881391775504837E-2</v>
+        <v>6.4552887409442913E-2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -4285,95 +4341,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V29">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="16"/>
-        <v>0.70735010435144341</v>
+        <f t="shared" si="18"/>
+        <v>0.70561722982546737</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="17"/>
-        <v>-0.15922629578580028</v>
+        <f t="shared" si="19"/>
+        <v>-0.15615660157646838</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="18"/>
-        <v>1.2554739129170867</v>
+        <f t="shared" si="20"/>
+        <v>1.2550778580744664</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="19"/>
-        <v>-0.27165053439940978</v>
+        <f t="shared" si="21"/>
+        <v>-0.26936058490672909</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="20"/>
-        <v>1.046228260764239</v>
+        <f t="shared" si="22"/>
+        <v>1.0458982150620553</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="21"/>
-        <v>-0.25282231034675762</v>
+        <f t="shared" si="23"/>
+        <v>-0.25096493024936395</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -4400,16 +4456,18 @@
         <v>1180</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
         <v>1172</v>
       </c>
       <c r="I30">
+        <f t="shared" si="1"/>
         <v>1204</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3.843182066371665E-2</v>
+        <v>3.8623296116963482E-2</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -4418,95 +4476,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.24</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.48</v>
       </c>
       <c r="U30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.06</v>
       </c>
       <c r="V30">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="16"/>
-        <v>0.54812380856564313</v>
+        <f t="shared" si="18"/>
+        <v>0.54946062824899899</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="17"/>
-        <v>-0.11242423861360945</v>
+        <f t="shared" si="19"/>
+        <v>-0.11320398333026066</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="18"/>
-        <v>0.98382337851767687</v>
+        <f t="shared" si="20"/>
+        <v>0.98571727316773727</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="19"/>
-        <v>5.0826158090549578E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.9402378813020675E-2</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="20"/>
-        <v>0.79340595041748141</v>
+        <f t="shared" si="22"/>
+        <v>0.79493328481269132</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="21"/>
-        <v>6.8801996756040706E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.7666425171273636E-2</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -4533,16 +4591,18 @@
         <v>1211</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
         <v>1204</v>
       </c>
       <c r="I31">
+        <f t="shared" si="1"/>
         <v>1232</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2.4106612597872688E-2</v>
+        <v>2.4169062958259151E-2</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -4551,95 +4611,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>-6.0000000000000053E-2</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="4"/>
-        <v>0.78</v>
-      </c>
-      <c r="S31">
         <f t="shared" si="5"/>
         <v>-6.0000000000000053E-2</v>
       </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="7"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
       <c r="T31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.48</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.06</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="16"/>
-        <v>0.43569956995203368</v>
+        <f t="shared" si="18"/>
+        <v>0.43625664491873833</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="17"/>
-        <v>0.16325039670415903</v>
+        <f t="shared" si="19"/>
+        <v>0.16260636214328134</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="18"/>
-        <v>1.0346495366082264</v>
+        <f t="shared" si="20"/>
+        <v>1.0351196519807579</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="19"/>
-        <v>0.34674884907009473</v>
+        <f t="shared" si="21"/>
+        <v>0.34404482404883319</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="20"/>
-        <v>0.86220794717352212</v>
+        <f t="shared" si="22"/>
+        <v>0.86259970998396496</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="21"/>
-        <v>0.34954502271974219</v>
+        <f t="shared" si="23"/>
+        <v>0.34719369004199219</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>93.75</v>
       </c>
     </row>
@@ -4666,16 +4726,18 @@
         <v>1240</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
         <v>1232</v>
       </c>
       <c r="I32">
+        <f t="shared" si="1"/>
         <v>1261</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4.6069691969872831E-2</v>
+        <v>4.6055991394085317E-2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4684,95 +4746,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="16"/>
-        <v>0.59894996665619271</v>
+        <f t="shared" si="18"/>
+        <v>0.59886300706201967</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="17"/>
-        <v>0.18349845236593587</v>
+        <f t="shared" si="19"/>
+        <v>0.18143846190555191</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="18"/>
-        <v>1.3813983856783212</v>
+        <f t="shared" si="20"/>
+        <v>1.3791644760295911</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="19"/>
-        <v>0.15522757108484675</v>
+        <f t="shared" si="21"/>
+        <v>0.15397516042194548</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="20"/>
-        <v>1.2117529698932643</v>
+        <f t="shared" si="22"/>
+        <v>1.2097934000259571</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="21"/>
-        <v>0.13616453603933931</v>
+        <f t="shared" si="23"/>
+        <v>0.13506593019468904</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -4799,16 +4861,18 @@
         <v>1269</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
         <v>1261</v>
       </c>
       <c r="I33">
+        <f t="shared" si="1"/>
         <v>1289</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>8.0017668277894596E-2</v>
+        <v>7.9560120641688881E-2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4817,95 +4881,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.9999999999999813E-2</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="13"/>
-        <v>-1.9999999999999962E-2</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="14"/>
-        <v>0.42</v>
-      </c>
-      <c r="AC33">
         <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
+      <c r="AB33">
+        <f t="shared" si="16"/>
+        <v>0.42</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="17"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
       <c r="AD33">
-        <f t="shared" si="16"/>
-        <v>0.78244841902212858</v>
+        <f t="shared" si="18"/>
+        <v>0.78030146896757158</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="17"/>
-        <v>-2.8270881281089233E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.7463301483606428E-2</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="18"/>
-        <v>1.5366259567631679</v>
+        <f t="shared" si="20"/>
+        <v>1.5331396364515366</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="19"/>
-        <v>0.13280109770471316</v>
+        <f t="shared" si="21"/>
+        <v>0.13674702427902918</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="20"/>
-        <v>1.3479175059326036</v>
+        <f t="shared" si="22"/>
+        <v>1.3448593302206462</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="21"/>
-        <v>0.16974345267456092</v>
+        <f t="shared" si="23"/>
+        <v>0.17321945226168634</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -4932,16 +4996,18 @@
         <v>1296</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
         <v>1289</v>
       </c>
       <c r="I34">
+        <f t="shared" si="1"/>
         <v>1316</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34">
-        <v>7.411098868537104E-2</v>
+        <v>7.3837463694278169E-2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4950,95 +5016,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q34">
         <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="R34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="16"/>
-        <v>0.75417753774103935</v>
+        <f t="shared" si="18"/>
+        <v>0.75283816748396515</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="17"/>
-        <v>0.16107197898580239</v>
+        <f t="shared" si="19"/>
+        <v>0.1642103257626355</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="18"/>
-        <v>1.6694270544678811</v>
+        <f t="shared" si="20"/>
+        <v>1.6698866607305658</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="19"/>
-        <v>5.3656857457737406E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.4649435974297056E-2</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="20"/>
-        <v>1.5176609586071645</v>
+        <f t="shared" si="22"/>
+        <v>1.5180787824823325</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="21"/>
-        <v>7.7787107990630266E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.8713899651799535E-2</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5065,16 +5131,18 @@
         <v>1323</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
         <v>1316</v>
       </c>
       <c r="I35">
+        <f t="shared" si="1"/>
         <v>1343</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>0.1113053493931733</v>
+        <v>0.11177099569450311</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5083,95 +5151,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V35">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="16"/>
-        <v>0.91524951672684174</v>
+        <f t="shared" si="18"/>
+        <v>0.91704849324660065</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="17"/>
-        <v>-0.10741512152806498</v>
+        <f t="shared" si="19"/>
+        <v>-0.10956088978833844</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="18"/>
-        <v>1.7230839119256185</v>
+        <f t="shared" si="20"/>
+        <v>1.7245360967048629</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="19"/>
-        <v>-3.1622738442993237E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.4294139860156392E-2</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="20"/>
-        <v>1.5954480665977948</v>
+        <f t="shared" si="22"/>
+        <v>1.5967926821341321</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="21"/>
-        <v>2.7002159336109166E-4</v>
+        <f t="shared" si="23"/>
+        <v>-2.2247983183714126E-3</v>
       </c>
       <c r="AJ35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -5198,16 +5266,18 @@
         <v>1350</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
         <v>1343</v>
       </c>
       <c r="I36">
+        <f t="shared" si="1"/>
         <v>1369</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36">
-        <v>8.5541142940654805E-2</v>
+        <v>8.5464270892118277E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5216,95 +5286,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V36">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="16"/>
-        <v>0.80783439519877676</v>
+        <f t="shared" si="18"/>
+        <v>0.8074876034582622</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="17"/>
-        <v>7.5792383085071746E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.5266749928182164E-2</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="18"/>
-        <v>1.6914611734826253</v>
+        <f t="shared" si="20"/>
+        <v>1.6902419568447065</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="19"/>
-        <v>-7.4869138315440953E-3</v>
+        <f t="shared" si="21"/>
+        <v>-1.0761879884219283E-2</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="20"/>
-        <v>1.5957180881911559</v>
+        <f t="shared" si="22"/>
+        <v>1.5945678838157606</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="21"/>
-        <v>-3.6482662588303016E-2</v>
+        <f t="shared" si="23"/>
+        <v>-3.9493738481976237E-2</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -5331,16 +5401,18 @@
         <v>1377</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
         <v>1369</v>
       </c>
       <c r="I37">
+        <f t="shared" si="1"/>
         <v>1397</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37">
-        <v>0.1033076816056883</v>
+        <v>0.10309201957313729</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5349,95 +5421,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
-      </c>
-      <c r="Q37">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="R37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="T37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="16"/>
-        <v>0.8836267782838485</v>
+        <f t="shared" si="18"/>
+        <v>0.88275435338644437</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="17"/>
-        <v>-8.3279296916615952E-2</v>
+        <f t="shared" si="19"/>
+        <v>-8.6028629812401447E-2</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="18"/>
-        <v>1.6839742596510812</v>
+        <f t="shared" si="20"/>
+        <v>1.6794800769604872</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="19"/>
-        <v>-0.13321648743722925</v>
+        <f t="shared" si="21"/>
+        <v>-0.13201410920947199</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="20"/>
-        <v>1.5592354256028529</v>
+        <f t="shared" si="22"/>
+        <v>1.5550741453337844</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="21"/>
-        <v>-0.1746302718404853</v>
+        <f t="shared" si="23"/>
+        <v>-0.17340810269894957</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -5464,16 +5536,18 @@
         <v>1404</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
         <v>1397</v>
       </c>
       <c r="I38">
+        <f t="shared" si="1"/>
         <v>1425</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
       <c r="K38">
-        <v>8.3890308398161806E-2</v>
+        <v>8.3098302668360047E-2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5482,95 +5556,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.78</v>
       </c>
       <c r="R38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7600000000000002</v>
       </c>
       <c r="V38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="16"/>
-        <v>0.80034748136723255</v>
+        <f t="shared" si="18"/>
+        <v>0.79672572357404292</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="17"/>
-        <v>-4.9937190520613073E-2</v>
+        <f t="shared" si="19"/>
+        <v>-4.5985479397070539E-2</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="18"/>
-        <v>1.5507577722138519</v>
+        <f t="shared" si="20"/>
+        <v>1.5474659677510152</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" si="19"/>
-        <v>-0.80034748136723244</v>
+        <f t="shared" si="21"/>
+        <v>-0.79672572357404281</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="20"/>
-        <v>1.3846051537623676</v>
+        <f t="shared" si="22"/>
+        <v>1.3816660426348348</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="21"/>
-        <v>-1.1921922586734908</v>
+        <f t="shared" si="23"/>
+        <v>-1.1891685441279187</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5597,16 +5671,18 @@
         <v>1433</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
         <v>1425</v>
       </c>
       <c r="I39" s="3">
+        <f t="shared" si="1"/>
         <v>1592</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>7.3343090135893643E-2</v>
+        <v>7.341016720481966E-2</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -5615,95 +5691,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.78</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.18</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="V39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.7</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.6799999999999997</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7600000000000002</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="16"/>
-        <v>0.75041029084661948</v>
+        <f t="shared" si="18"/>
+        <v>0.75074024417697238</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="17"/>
-        <v>-0.75041029084661948</v>
+        <f t="shared" si="19"/>
+        <v>-0.75074024417697238</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="18"/>
-        <v>0.75041029084661948</v>
+        <f t="shared" si="20"/>
+        <v>0.75074024417697238</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="19"/>
-        <v>2.4159343236821895E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.4256907649773063E-2</v>
       </c>
       <c r="AH39" s="3">
-        <f t="shared" si="20"/>
-        <v>0.1924128950888768</v>
+        <f t="shared" si="22"/>
+        <v>0.192497498506916</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="21"/>
-        <v>4.1783825972758482E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.2022862206843592E-3</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -5730,9 +5806,11 @@
         <v>1465</v>
       </c>
       <c r="H40" s="3">
+        <f t="shared" si="0"/>
         <v>1592</v>
       </c>
       <c r="I40" s="3">
+        <f t="shared" si="1"/>
         <v>1622</v>
       </c>
       <c r="J40">
@@ -5745,95 +5823,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.34</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.7399999999999998</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.94</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.8</v>
       </c>
       <c r="R40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.14</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.74</v>
       </c>
       <c r="V40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.54</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.68</v>
       </c>
       <c r="Z40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2.38</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.6799999999999997</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.18</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.74</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="17"/>
-        <v>0.77456963408344137</v>
+        <f t="shared" si="19"/>
+        <v>0.77499715182674545</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="18"/>
-        <v>0.77456963408344137</v>
+        <f t="shared" si="20"/>
+        <v>0.77499715182674545</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="19"/>
-        <v>0.82912373003735507</v>
+        <f t="shared" si="21"/>
+        <v>0.82791506372214829</v>
       </c>
       <c r="AH40" s="3">
-        <f t="shared" si="20"/>
-        <v>0.19659127768615264</v>
+        <f t="shared" si="22"/>
+        <v>0.19669978472760036</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="21"/>
-        <v>1.2101572873320898</v>
+        <f t="shared" si="23"/>
+        <v>1.2093635622451135</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>17.964071856287426</v>
       </c>
     </row>
@@ -5860,16 +5938,18 @@
         <v>1629</v>
       </c>
       <c r="H41" s="3">
+        <f t="shared" si="0"/>
         <v>1622</v>
       </c>
       <c r="I41">
+        <f t="shared" si="1"/>
         <v>1649</v>
       </c>
       <c r="J41">
         <v>3</v>
       </c>
       <c r="K41">
-        <v>7.8345845557594079E-2</v>
+        <v>7.8436049909851785E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5878,95 +5958,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74</v>
       </c>
       <c r="S41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="T41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="16"/>
-        <v>0.77456963408344137</v>
+        <f t="shared" si="18"/>
+        <v>0.77499715182674545</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="17"/>
-        <v>5.4554095953913806E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.2917911895402847E-2</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="18"/>
-        <v>1.6036933641207964</v>
+        <f t="shared" si="20"/>
+        <v>1.6029122155488937</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="19"/>
-        <v>5.6629417009236516E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.9284637137899665E-2</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="20"/>
-        <v>1.4067485650182425</v>
+        <f t="shared" si="22"/>
+        <v>1.406063346972714</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="21"/>
-        <v>0.13058734343549161</v>
+        <f t="shared" si="23"/>
+        <v>0.133007812922465</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -5993,16 +6073,18 @@
         <v>1656</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
         <v>1649</v>
       </c>
       <c r="I42">
+        <f t="shared" si="1"/>
         <v>1676</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42">
-        <v>9.0336304627408812E-2</v>
+        <v>9.0060040704654912E-2</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6011,95 +6093,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V42">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X42">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W42">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="16"/>
-        <v>0.82912373003735518</v>
+        <f t="shared" si="18"/>
+        <v>0.82791506372214829</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="17"/>
-        <v>2.0753210553225987E-3</v>
+        <f t="shared" si="19"/>
+        <v>6.3667252424969289E-3</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="18"/>
-        <v>1.660322781130033</v>
+        <f t="shared" si="20"/>
+        <v>1.6621968526867934</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="19"/>
-        <v>3.4233594158421976E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.3887165781476991E-2</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="20"/>
-        <v>1.5373359084537341</v>
+        <f t="shared" si="22"/>
+        <v>1.539071159895179</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="21"/>
-        <v>6.1302181441034609E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.1008102810736542E-2</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6126,16 +6208,18 @@
         <v>1683</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
         <v>1676</v>
       </c>
       <c r="I43">
+        <f t="shared" si="1"/>
         <v>1702</v>
       </c>
       <c r="J43">
         <v>3</v>
       </c>
       <c r="K43">
-        <v>9.0811796473884057E-2</v>
+        <v>9.1520762670240188E-2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6144,95 +6228,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
-        <v>1.06</v>
-      </c>
-      <c r="Q43">
         <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="R43">
+      <c r="P43">
         <f t="shared" si="4"/>
-        <v>0.68</v>
-      </c>
-      <c r="S43">
+        <v>1.06</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0.68</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="7"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="T43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X43">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="16"/>
-        <v>0.83119905109267778</v>
+        <f t="shared" si="18"/>
+        <v>0.83428178896464522</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="17"/>
-        <v>3.2158273103099266E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.7520440538980062E-2</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="18"/>
-        <v>1.6945563752884549</v>
+        <f t="shared" si="20"/>
+        <v>1.6960840184682704</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="19"/>
-        <v>5.3969508967778745E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.9548224995146439E-2</v>
       </c>
       <c r="AH43">
-        <f t="shared" si="20"/>
-        <v>1.5986380898947687</v>
+        <f t="shared" si="22"/>
+        <v>1.6000792627059155</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="21"/>
-        <v>8.2636798813148227E-2</v>
+        <f t="shared" si="23"/>
+        <v>7.84132790858314E-2</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6259,16 +6343,18 @@
         <v>1709</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
         <v>1702</v>
       </c>
       <c r="I44">
+        <f t="shared" si="1"/>
         <v>1728</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44">
-        <v>9.836520519003443E-2</v>
+        <v>9.7991858170438678E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6277,95 +6363,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.04</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="U44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V44">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X44">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="16"/>
-        <v>0.86335732419577704</v>
+        <f t="shared" si="18"/>
+        <v>0.86180222950362528</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="17"/>
-        <v>2.181123586467959E-2</v>
+        <f t="shared" si="19"/>
+        <v>2.2027784456166266E-2</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="18"/>
-        <v>1.7485258842562337</v>
+        <f t="shared" si="20"/>
+        <v>1.7456322434634168</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="19"/>
-        <v>-4.6767040093106615E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.3239059982113526E-2</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="20"/>
-        <v>1.681274888707917</v>
+        <f t="shared" si="22"/>
+        <v>1.6784925417917469</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="21"/>
-        <v>-7.584201685591041E-2</v>
+        <f t="shared" si="23"/>
+        <v>-7.2461236620706027E-2</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -6392,16 +6478,18 @@
         <v>1735</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="I45">
+        <f t="shared" si="1"/>
         <v>1755</v>
       </c>
       <c r="J45">
         <v>3</v>
       </c>
       <c r="K45">
-        <v>0.10368945616727231</v>
+        <v>0.10335795921694781</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6410,95 +6498,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.06</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V45">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X45">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="16"/>
-        <v>0.88516856006045663</v>
+        <f t="shared" si="18"/>
+        <v>0.88383001395979155</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="17"/>
-        <v>-6.8578275957786206E-2</v>
+        <f t="shared" si="19"/>
+        <v>-6.5266844438279903E-2</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="18"/>
-        <v>1.7017588441631271</v>
+        <f t="shared" si="20"/>
+        <v>1.7023931834813033</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="19"/>
-        <v>-3.5662386356869247E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.0065593893302545E-2</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="20"/>
-        <v>1.6054328718520066</v>
+        <f t="shared" si="22"/>
+        <v>1.6060313051710409</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="21"/>
-        <v>-9.0799728391772305E-2</v>
+        <f t="shared" si="23"/>
+        <v>-8.5733496454676761E-2</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -6525,16 +6613,18 @@
         <v>1762</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
         <v>1755</v>
       </c>
       <c r="I46">
+        <f t="shared" si="1"/>
         <v>1783</v>
       </c>
       <c r="J46">
         <v>3</v>
       </c>
       <c r="K46">
-        <v>8.7495144155737281E-2</v>
+        <v>8.7938914220469067E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6543,95 +6633,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
       <c r="R46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V46">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X46">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="16"/>
-        <v>0.81659028410267043</v>
+        <f t="shared" si="18"/>
+        <v>0.81856316952151165</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="17"/>
-        <v>3.2915889600916848E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.520125054497758E-2</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="18"/>
-        <v>1.6660964578062578</v>
+        <f t="shared" si="20"/>
+        <v>1.6723275895880008</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="19"/>
-        <v>2.4465854231842554E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.1085154063517964E-2</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="20"/>
-        <v>1.5146331434602343</v>
+        <f t="shared" si="22"/>
+        <v>1.5202978087163641</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="21"/>
-        <v>-5.7251839979113095E-2</v>
+        <f t="shared" si="23"/>
+        <v>-6.0459236602985689E-2</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -6658,16 +6748,18 @@
         <v>1791</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
         <v>1783</v>
       </c>
       <c r="I47">
+        <f t="shared" si="1"/>
         <v>1813</v>
       </c>
       <c r="J47">
         <v>3</v>
       </c>
       <c r="K47">
-        <v>9.5068887028816357E-2</v>
+        <v>9.6075314812965482E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6676,95 +6768,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="16"/>
-        <v>0.84950617370358728</v>
+        <f t="shared" si="18"/>
+        <v>0.85376442006648923</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="17"/>
-        <v>-8.4500353690741825E-3</v>
+        <f t="shared" si="19"/>
+        <v>-1.4116096481459728E-2</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="18"/>
-        <v>1.6905623120381004</v>
+        <f t="shared" si="20"/>
+        <v>1.6934127436515187</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="19"/>
-        <v>-0.1292750290147151</v>
+        <f t="shared" si="21"/>
+        <v>-0.13296467102330323</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="20"/>
-        <v>1.4573813034811212</v>
+        <f t="shared" si="22"/>
+        <v>1.4598385721133784</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="21"/>
-        <v>-0.13425648735960816</v>
+        <f t="shared" si="23"/>
+        <v>-0.13742495124200937</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -6791,16 +6883,18 @@
         <v>1821</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
         <v>1813</v>
       </c>
       <c r="I48">
+        <f t="shared" si="1"/>
         <v>1842</v>
       </c>
       <c r="J48">
         <v>3</v>
       </c>
       <c r="K48">
-        <v>9.3089918664438318E-2</v>
+        <v>9.2762554353123097E-2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6809,95 +6903,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="R48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="V48">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X48">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="16"/>
-        <v>0.84105613833451309</v>
+        <f t="shared" si="18"/>
+        <v>0.8396483235850295</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="17"/>
-        <v>-0.12082499364564092</v>
+        <f t="shared" si="19"/>
+        <v>-0.11884857454184339</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="18"/>
-        <v>1.5612872830233853</v>
+        <f t="shared" si="20"/>
+        <v>1.5604480726282155</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="19"/>
-        <v>-0.27524046050689366</v>
+        <f t="shared" si="21"/>
+        <v>-0.27442522041789741</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="20"/>
-        <v>1.323124816121513</v>
+        <f t="shared" si="22"/>
+        <v>1.322413620871369</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="21"/>
-        <v>-0.3338580295703657</v>
+        <f t="shared" si="23"/>
+        <v>-0.33316527301727827</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -6924,16 +7018,18 @@
         <v>1851</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
         <v>1842</v>
       </c>
       <c r="I49">
+        <f t="shared" si="1"/>
         <v>1878</v>
       </c>
       <c r="J49">
         <v>3</v>
       </c>
       <c r="K49">
-        <v>6.7352243124693179E-2</v>
+        <v>6.7462493789372288E-2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -6942,95 +7038,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
       <c r="U49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="V49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="16"/>
-        <v>0.72023114468887217</v>
+        <f t="shared" si="18"/>
+        <v>0.72079974904318611</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="17"/>
-        <v>-0.15441546686125285</v>
+        <f t="shared" si="19"/>
+        <v>-0.15557664587605413</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="18"/>
-        <v>1.2860468225164916</v>
+        <f t="shared" si="20"/>
+        <v>1.2860228522103181</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="19"/>
-        <v>-0.1598622449892888</v>
+        <f t="shared" si="21"/>
+        <v>-0.16035951193690079</v>
       </c>
       <c r="AH49">
-        <f t="shared" si="20"/>
-        <v>0.9892667865511473</v>
+        <f t="shared" si="22"/>
+        <v>0.98924834785409077</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="21"/>
-        <v>-9.5469502799399031E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.5864744462489715E-2</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -7057,16 +7153,18 @@
         <v>1885</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
         <v>1878</v>
       </c>
       <c r="I50">
+        <f t="shared" si="1"/>
         <v>1905</v>
       </c>
       <c r="J50">
         <v>3</v>
       </c>
       <c r="K50">
-        <v>4.100682717473958E-2</v>
+        <v>4.0919141525310607E-2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7075,95 +7173,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.72</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.17999999999999994</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.26</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.12000000000000011</v>
       </c>
       <c r="R50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86</v>
       </c>
       <c r="S50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.16000000000000003</v>
       </c>
       <c r="T50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="V50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
       <c r="W50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.999999999999998E-2</v>
       </c>
       <c r="X50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.54</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="16"/>
-        <v>0.56581567782761932</v>
+        <f t="shared" si="18"/>
+        <v>0.56522310316713198</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="17"/>
-        <v>-5.4467781280358452E-3</v>
+        <f t="shared" si="19"/>
+        <v>-4.7828660608466578E-3</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="18"/>
-        <v>1.1261845775272028</v>
+        <f t="shared" si="20"/>
+        <v>1.1256633402734173</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="19"/>
-        <v>0.22063390235025637</v>
+        <f t="shared" si="21"/>
+        <v>0.21733702780891551</v>
       </c>
       <c r="AH50">
-        <f t="shared" si="20"/>
-        <v>0.89379728375174827</v>
+        <f t="shared" si="22"/>
+        <v>0.89338360339160106</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="21"/>
-        <v>0.28762243543900556</v>
+        <f t="shared" si="23"/>
+        <v>0.28468689492623478</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>83.333333333333343</v>
       </c>
     </row>
@@ -7190,16 +7288,18 @@
         <v>1913</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
         <v>1905</v>
       </c>
       <c r="I51">
+        <f t="shared" si="1"/>
         <v>1935</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51">
-        <v>4.020460466368616E-2</v>
+        <v>4.021505703234237E-2</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -7208,95 +7308,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.44</v>
       </c>
       <c r="U51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="X51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="16"/>
-        <v>0.56036889969958348</v>
+        <f t="shared" si="18"/>
+        <v>0.56044023710628532</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="17"/>
-        <v>0.22608068047829222</v>
+        <f t="shared" si="19"/>
+        <v>0.22211989386976216</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="18"/>
-        <v>1.3468184798774592</v>
+        <f t="shared" si="20"/>
+        <v>1.3430003680823328</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="19"/>
-        <v>0.1986213284534204</v>
+        <f t="shared" si="21"/>
+        <v>0.19772394116890202</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="20"/>
-        <v>1.1814197191907538</v>
+        <f t="shared" si="22"/>
+        <v>1.1780704983178358</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="21"/>
-        <v>0.12827503363202553</v>
+        <f t="shared" si="23"/>
+        <v>0.12762806884422773</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -7323,16 +7423,18 @@
         <v>1943</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
         <v>1935</v>
       </c>
       <c r="I52">
+        <f t="shared" si="1"/>
         <v>1964</v>
       </c>
       <c r="J52">
         <v>3</v>
       </c>
       <c r="K52">
-        <v>8.087434527507055E-2</v>
+        <v>8.0041516462204698E-2</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -7341,95 +7443,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="O52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999831E-2</v>
       </c>
       <c r="R52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="8"/>
-        <v>0.16</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X52">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
+      <c r="W52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
       <c r="Y52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="16"/>
-        <v>0.7864495801778757</v>
+        <f t="shared" si="18"/>
+        <v>0.78256013097604749</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="17"/>
-        <v>-2.7459352024871819E-2</v>
+        <f t="shared" si="19"/>
+        <v>-2.4395952700860257E-2</v>
       </c>
       <c r="AF52">
-        <f t="shared" si="18"/>
-        <v>1.5454398083308796</v>
+        <f t="shared" si="20"/>
+        <v>1.5407243092512348</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="19"/>
-        <v>3.161226231198766E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.1160474535167015E-2</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="20"/>
-        <v>1.3096947528227794</v>
+        <f t="shared" si="22"/>
+        <v>1.3056985671620636</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="21"/>
-        <v>9.8387453108351952E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.776998979008078E-2</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
     </row>
@@ -7456,16 +7558,18 @@
         <v>1971</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
         <v>1964</v>
       </c>
       <c r="I53">
+        <f t="shared" si="1"/>
         <v>1991</v>
       </c>
       <c r="J53">
         <v>3</v>
       </c>
       <c r="K53">
-        <v>7.5098519271751749E-2</v>
+        <v>7.4928497621832305E-2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7474,95 +7578,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="O53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72</v>
       </c>
       <c r="S53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="W53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.999999999999999E-2</v>
       </c>
       <c r="X53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="16"/>
-        <v>0.75899022815300388</v>
+        <f t="shared" si="18"/>
+        <v>0.75816417827518723</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="17"/>
-        <v>5.907161433685959E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.5556427236027495E-2</v>
       </c>
       <c r="AF53">
-        <f t="shared" si="18"/>
-        <v>1.5770520706428672</v>
+        <f t="shared" si="20"/>
+        <v>1.5718847837864018</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="19"/>
-        <v>0.13185367471163367</v>
+        <f t="shared" si="21"/>
+        <v>0.13276200526738924</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="20"/>
-        <v>1.4080822059311313</v>
+        <f t="shared" si="22"/>
+        <v>1.4034685569521443</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="21"/>
-        <v>0.14546847166386945</v>
+        <f t="shared" si="23"/>
+        <v>0.14621034218766571</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103.44827586206897</v>
       </c>
     </row>
@@ -7589,16 +7693,18 @@
         <v>1998</v>
       </c>
       <c r="H54">
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="I54">
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="J54">
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.7826026420785894E-2</v>
+        <v>8.6851950669116385E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7607,95 +7713,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="O54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X54">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y54">
-        <f t="shared" si="11"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA54">
         <f t="shared" si="13"/>
         <v>-2.0000000000000018E-2</v>
       </c>
+      <c r="Z54">
+        <f t="shared" si="14"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="15"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="AB54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="16"/>
-        <v>0.81806184248986347</v>
+        <f t="shared" si="18"/>
+        <v>0.81372060551121472</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="17"/>
-        <v>7.2782060374773971E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.7205578031361743E-2</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="18"/>
-        <v>1.7089057453545009</v>
+        <f t="shared" si="20"/>
+        <v>1.7046467890537911</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="19"/>
-        <v>-4.8805927708657659E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.7605364456086541E-2</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="20"/>
-        <v>1.5535506775950008</v>
+        <f t="shared" si="22"/>
+        <v>1.5496788991398101</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="21"/>
-        <v>-1.6421216811812744E-2</v>
+        <f t="shared" si="23"/>
+        <v>-1.5381283771565224E-2</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>111.1111111111111</v>
       </c>
     </row>
@@ -7722,16 +7828,18 @@
         <v>2025</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="I55">
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="J55">
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.1051019324702734</v>
+        <v>0.10512249334476929</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -7740,95 +7848,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="S55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="U55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="V55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="16"/>
-        <v>0.89084390286463744</v>
+        <f t="shared" si="18"/>
+        <v>0.89092618354257647</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="17"/>
-        <v>-0.12158798808343174</v>
+        <f t="shared" si="19"/>
+        <v>-0.1248109424874484</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="18"/>
-        <v>1.6600998176458432</v>
+        <f t="shared" si="20"/>
+        <v>1.6570414245977045</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="19"/>
-        <v>-4.3527831777778747E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.9210507973661777E-2</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="20"/>
-        <v>1.537129460783188</v>
+        <f t="shared" si="22"/>
+        <v>1.5342976153682448</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="21"/>
-        <v>-4.0303547942387663E-2</v>
+        <f t="shared" si="23"/>
+        <v>-4.5565285160797941E-2</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -7855,16 +7963,18 @@
         <v>2052</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
       <c r="I56">
+        <f t="shared" si="1"/>
         <v>2073</v>
       </c>
       <c r="J56">
         <v>3</v>
       </c>
       <c r="K56">
-        <v>7.7229561836580501E-2</v>
+        <v>7.6574027679278484E-2</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -7873,95 +7983,95 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52</v>
       </c>
       <c r="O56">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
-      </c>
-      <c r="Q56">
         <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
       <c r="R56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="S56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="W56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9999999999999962E-2</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="16"/>
-        <v>0.7692559147812057</v>
+        <f t="shared" si="18"/>
+        <v>0.76611524105512807</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="17"/>
-        <v>7.8060156305653217E-2</v>
+        <f t="shared" si="19"/>
+        <v>7.5600434513786507E-2</v>
       </c>
       <c r="AF56">
-        <f t="shared" si="18"/>
-        <v>1.6165719858680645</v>
+        <f t="shared" si="20"/>
+        <v>1.6078309166240428</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="19"/>
-        <v>-5.1986474845699071E-2</v>
+        <f t="shared" si="21"/>
+        <v>-5.1419714707879205E-2</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="20"/>
-        <v>1.4968259128408004</v>
+        <f t="shared" si="22"/>
+        <v>1.4887323302074469</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="21"/>
-        <v>-9.9874563713688413E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.907947135372952E-2</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>115.38461538461539</v>
       </c>
     </row>
@@ -7988,16 +8098,18 @@
         <v>2080</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
         <v>2073</v>
       </c>
       <c r="I57">
+        <f t="shared" si="1"/>
         <v>2101</v>
       </c>
       <c r="J57">
         <v>2</v>
       </c>
       <c r="K57">
-        <v>9.4553655593436314E-2</v>
+        <v>9.3243512797814523E-2</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8006,83 +8118,83 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42</v>
       </c>
       <c r="U57" s="3"/>
       <c r="V57">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X57">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W57">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="16"/>
-        <v>0.84731607108685891</v>
+        <f t="shared" si="18"/>
+        <v>0.84171567556891458</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="17"/>
-        <v>-0.1300466311513524</v>
+        <f t="shared" si="19"/>
+        <v>-0.1270201492216656</v>
       </c>
       <c r="AF57">
-        <f t="shared" si="18"/>
-        <v>1.5645855110223654</v>
+        <f t="shared" si="20"/>
+        <v>1.5564112019161636</v>
       </c>
       <c r="AG57" s="3"/>
       <c r="AH57">
-        <f t="shared" si="20"/>
-        <v>1.3969513491271119</v>
+        <f t="shared" si="22"/>
+        <v>1.3896528588537174</v>
       </c>
       <c r="AI57" s="3"/>
       <c r="AJ57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -8109,6 +8221,7 @@
         <v>2108</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="I58" s="3"/>
@@ -8116,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>6.6779594870222739E-2</v>
+        <v>6.6284127565383821E-2</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8125,48 +8238,48 @@
         <v>0.99639999999999995</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="S58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58">
-        <f t="shared" si="8"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X58">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
+      <c r="W58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="Y58" s="3"/>
       <c r="Z58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.42</v>
       </c>
       <c r="AC58" s="3"/>
       <c r="AD58">
-        <f t="shared" si="16"/>
-        <v>0.71726943993550651</v>
+        <f t="shared" si="18"/>
+        <v>0.71469552634724898</v>
       </c>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
@@ -8174,7 +8287,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>107.14285714285714</v>
       </c>
     </row>
@@ -8216,14 +8329,14 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="W59" s="3"/>
